--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.759484528560364</v>
+        <v>1.759484528560222</v>
       </c>
       <c r="C2">
-        <v>0.5224476185158551</v>
+        <v>0.5224476185161109</v>
       </c>
       <c r="D2">
-        <v>0.04936005375483177</v>
+        <v>0.04936005375484598</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.437795221760453</v>
+        <v>2.437795221760425</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0.5196131296787243</v>
       </c>
       <c r="K2">
-        <v>0.3261924973796226</v>
+        <v>0.326192497379644</v>
       </c>
       <c r="L2">
-        <v>0.7633372533747718</v>
+        <v>0.7633372533747931</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.515570662128852</v>
+        <v>1.51557066212871</v>
       </c>
       <c r="C3">
-        <v>0.4502769725247333</v>
+        <v>0.4502769725247617</v>
       </c>
       <c r="D3">
-        <v>0.04832545644330821</v>
+        <v>0.04832545644295649</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.361459044493429</v>
+        <v>1.361459044493415</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4475062947760122</v>
+        <v>0.4475062947760193</v>
       </c>
       <c r="K3">
-        <v>0.2828199319493976</v>
+        <v>0.2828199319494402</v>
       </c>
       <c r="L3">
-        <v>0.6578548691086326</v>
+        <v>0.6578548691086539</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.367959283603454</v>
+        <v>1.367959283603653</v>
       </c>
       <c r="C4">
-        <v>0.406624489528383</v>
+        <v>0.4066244895284115</v>
       </c>
       <c r="D4">
-        <v>0.04774966669615921</v>
+        <v>0.0477496666962729</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0.4038740336841542</v>
       </c>
       <c r="K4">
-        <v>0.2568327891185191</v>
+        <v>0.2568327891185263</v>
       </c>
       <c r="L4">
         <v>0.5943473197477545</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308263326107721</v>
+        <v>1.308263326107692</v>
       </c>
       <c r="C5">
-        <v>0.3889737737612222</v>
+        <v>0.3889737737613927</v>
       </c>
       <c r="D5">
-        <v>0.04752834226150782</v>
+        <v>0.04752834226153269</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.953214057231335</v>
+        <v>1.953214057231307</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.24620630800213</v>
+        <v>1.246206308002115</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3862290679615228</v>
+        <v>0.386229067961537</v>
       </c>
       <c r="K5">
-        <v>0.2463834052608149</v>
+        <v>0.2463834052608078</v>
       </c>
       <c r="L5">
-        <v>0.5687398637933256</v>
+        <v>0.568739863793347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298376125353712</v>
+        <v>1.29837612535357</v>
       </c>
       <c r="C6">
-        <v>0.3860504489755954</v>
+        <v>0.386050448975567</v>
       </c>
       <c r="D6">
-        <v>0.04749235074514147</v>
+        <v>0.04749235074515212</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.240770667499106</v>
+        <v>1.24077066749912</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3833066098290061</v>
+        <v>0.383306609828999</v>
       </c>
       <c r="K6">
         <v>0.2446561976278403</v>
       </c>
       <c r="L6">
-        <v>0.5645029985360281</v>
+        <v>0.5645029985360352</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.367152459321687</v>
+        <v>1.367152459321574</v>
       </c>
       <c r="C7">
-        <v>0.4063859222270025</v>
+        <v>0.4063859222266331</v>
       </c>
       <c r="D7">
-        <v>0.04774662997786905</v>
+        <v>0.04774662997797563</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.278701210381328</v>
+        <v>1.2787012103813</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4036355511692946</v>
+        <v>0.4036355511693088</v>
       </c>
       <c r="K7">
         <v>0.2566913225996856</v>
       </c>
       <c r="L7">
-        <v>0.594000921336054</v>
+        <v>0.5940009213360469</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.674882911155777</v>
+        <v>1.674882911155748</v>
       </c>
       <c r="C8">
-        <v>0.4974083334653585</v>
+        <v>0.4974083334653869</v>
       </c>
       <c r="D8">
-        <v>0.0489899487030776</v>
+        <v>0.04898994870319129</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.345806665041252</v>
+        <v>2.34580666504128</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.451551702788635</v>
+        <v>1.451551702788649</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4946012259017891</v>
+        <v>0.4946012259017749</v>
       </c>
       <c r="K8">
-        <v>0.3110905681012497</v>
+        <v>0.3110905681012568</v>
       </c>
       <c r="L8">
-        <v>0.7266776903587342</v>
+        <v>0.7266776903587271</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.299693156751403</v>
+        <v>2.299693156751232</v>
       </c>
       <c r="C9">
-        <v>0.6825662624982272</v>
+        <v>0.6825662624975735</v>
       </c>
       <c r="D9">
-        <v>0.05198294921605395</v>
+        <v>0.05198294921583368</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.035439183089181</v>
+        <v>3.035439183089153</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.815471521386073</v>
+        <v>1.815471521386044</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6793812192032647</v>
+        <v>0.6793812192032718</v>
       </c>
       <c r="K9">
-        <v>0.4239526397579425</v>
+        <v>0.4239526397578999</v>
       </c>
       <c r="L9">
-        <v>0.9990821822417075</v>
+        <v>0.9990821822416933</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.778520127606612</v>
+        <v>2.778520127606498</v>
       </c>
       <c r="C10">
-        <v>0.8249193888321429</v>
+        <v>0.8249193888321713</v>
       </c>
       <c r="D10">
-        <v>0.05465285589852442</v>
+        <v>0.05465285589873048</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.577889091011741</v>
+        <v>3.577889091011798</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.103853489102889</v>
+        <v>2.103853489102903</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8211067538881878</v>
+        <v>0.8211067538881736</v>
       </c>
       <c r="K10">
-        <v>0.5123515029278281</v>
+        <v>0.5123515029278707</v>
       </c>
       <c r="L10">
-        <v>1.210213204920976</v>
+        <v>1.21021320492099</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.002416694455803</v>
+        <v>3.002416694455746</v>
       </c>
       <c r="C11">
         <v>0.8916443881549299</v>
       </c>
       <c r="D11">
-        <v>0.05600515806906969</v>
+        <v>0.05600515806896311</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.83508272655223</v>
+        <v>3.835082726552173</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.241117796125607</v>
+        <v>2.241117796125579</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8874194165284166</v>
+        <v>0.8874194165284024</v>
       </c>
       <c r="K11">
-        <v>0.5542060278798147</v>
+        <v>0.554206027879836</v>
       </c>
       <c r="L11">
-        <v>1.309580068473878</v>
+        <v>1.309580068473863</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.088246848030167</v>
+        <v>3.08824684803011</v>
       </c>
       <c r="C12">
-        <v>0.9172524749566833</v>
+        <v>0.9172524749564843</v>
       </c>
       <c r="D12">
         <v>0.05654058265054829</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.294117237408145</v>
+        <v>2.29411723740813</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0.912847964122534</v>
       </c>
       <c r="K12">
-        <v>0.5703354693580494</v>
+        <v>0.5703354693580707</v>
       </c>
       <c r="L12">
-        <v>1.347776529169508</v>
+        <v>1.347776529169494</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.069712290263681</v>
+        <v>3.069712290263737</v>
       </c>
       <c r="C13">
-        <v>0.9117211454057781</v>
+        <v>0.9117211454057497</v>
       </c>
       <c r="D13">
-        <v>0.05642416910838932</v>
+        <v>0.05642416910840353</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.91279675183435</v>
+        <v>3.912796751834293</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.282654916618426</v>
+        <v>2.282654916618412</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9073564338947904</v>
+        <v>0.907356433894833</v>
       </c>
       <c r="K13">
-        <v>0.5668484781916021</v>
+        <v>0.5668484781915879</v>
       </c>
       <c r="L13">
-        <v>1.339523369893357</v>
+        <v>1.339523369893342</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.00945596870298</v>
+        <v>3.009455968702923</v>
       </c>
       <c r="C14">
-        <v>0.8937439892145278</v>
+        <v>0.8937439892144425</v>
       </c>
       <c r="D14">
-        <v>0.05604871780902698</v>
+        <v>0.05604871780906251</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.84320308290819</v>
+        <v>3.843203082908133</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.245456727161454</v>
+        <v>2.245456727161439</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0.8895047484204355</v>
       </c>
       <c r="K14">
-        <v>0.5555271184975865</v>
+        <v>0.5555271184975794</v>
       </c>
       <c r="L14">
         <v>1.312710555601527</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.972688893698603</v>
+        <v>2.97268889369866</v>
       </c>
       <c r="C15">
-        <v>0.8827787036010477</v>
+        <v>0.8827787036008203</v>
       </c>
       <c r="D15">
-        <v>0.0558218966496753</v>
+        <v>0.05582189664986714</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.80081199702073</v>
+        <v>3.800811997020674</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.222809355642994</v>
+        <v>2.222809355642966</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8786131021219461</v>
+        <v>0.8786131021219603</v>
       </c>
       <c r="K15">
-        <v>0.5486303473075367</v>
+        <v>0.5486303473075296</v>
       </c>
       <c r="L15">
         <v>1.296363872577032</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.764024342969833</v>
+        <v>2.764024342969719</v>
       </c>
       <c r="C16">
-        <v>0.8206031017979569</v>
+        <v>0.8206031017981843</v>
       </c>
       <c r="D16">
-        <v>0.05456754072946524</v>
+        <v>0.05456754072920944</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.561311917274594</v>
+        <v>3.561311917274537</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8168144405404476</v>
+        <v>0.8168144405404405</v>
       </c>
       <c r="K16">
-        <v>0.5096528561995513</v>
+        <v>0.5096528561995726</v>
       </c>
       <c r="L16">
-        <v>1.203793650579854</v>
+        <v>1.20379365057984</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.637686189410317</v>
       </c>
       <c r="C17">
-        <v>0.7830029373349703</v>
+        <v>0.7830029373347713</v>
       </c>
       <c r="D17">
-        <v>0.05383565542039292</v>
+        <v>0.0538356554204924</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.018275583629816</v>
+        <v>2.018275583629801</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7794096269902084</v>
+        <v>0.7794096269902013</v>
       </c>
       <c r="K17">
         <v>0.4861911605292732</v>
       </c>
       <c r="L17">
-        <v>1.147916193398004</v>
+        <v>1.147916193398018</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.565580090847504</v>
+        <v>2.565580090847561</v>
       </c>
       <c r="C18">
-        <v>0.7615576211811685</v>
+        <v>0.7615576211811117</v>
       </c>
       <c r="D18">
-        <v>0.0534274186117969</v>
+        <v>0.05342741861181111</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.335321681424915</v>
+        <v>3.335321681424887</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.974697973545446</v>
+        <v>1.974697973545418</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7580650879793538</v>
+        <v>0.758065087979368</v>
       </c>
       <c r="K18">
-        <v>0.4728481272198977</v>
+        <v>0.4728481272198906</v>
       </c>
       <c r="L18">
         <v>1.116083526238739</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.541257590820521</v>
+        <v>2.541257590820351</v>
       </c>
       <c r="C19">
-        <v>0.7543261180454692</v>
+        <v>0.7543261180454977</v>
       </c>
       <c r="D19">
-        <v>0.05329128337178446</v>
+        <v>0.05329128337169919</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.307747452786344</v>
+        <v>3.307747452786259</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.960035767588607</v>
+        <v>1.960035767588565</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0.7508658600213067</v>
       </c>
       <c r="K19">
-        <v>0.4683551906242087</v>
+        <v>0.4683551906241945</v>
       </c>
       <c r="L19">
         <v>1.105355633682628</v>
@@ -1099,31 +1099,31 @@
         <v>2.651075950054008</v>
       </c>
       <c r="C20">
-        <v>0.7869863827484949</v>
+        <v>0.7869863827488643</v>
       </c>
       <c r="D20">
-        <v>0.05391222514357707</v>
+        <v>0.05391222514345628</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.432465851370779</v>
+        <v>3.432465851370807</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.02638568962189</v>
+        <v>2.026385689621875</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7833735104121331</v>
+        <v>0.7833735104121189</v>
       </c>
       <c r="K20">
-        <v>0.4886727187883295</v>
+        <v>0.4886727187883437</v>
       </c>
       <c r="L20">
         <v>1.153832100538693</v>
@@ -1140,31 +1140,31 @@
         <v>0.8990145634380724</v>
       </c>
       <c r="D21">
-        <v>0.05615833262795178</v>
+        <v>0.05615833262809389</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.86359451849259</v>
+        <v>3.863594518492562</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.256353771046335</v>
+        <v>2.256353771046349</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8947391493780685</v>
+        <v>0.8947391493780401</v>
       </c>
       <c r="K21">
         <v>0.5588444922301292</v>
       </c>
       <c r="L21">
-        <v>1.320569913701348</v>
+        <v>1.320569913701362</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.279086539956836</v>
+        <v>3.279086539956779</v>
       </c>
       <c r="C22">
-        <v>0.9742511530304796</v>
+        <v>0.974251153029968</v>
       </c>
       <c r="D22">
-        <v>0.05776439269389755</v>
+        <v>0.05776439269381939</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.155749488783925</v>
+        <v>4.155749488783954</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.412682974000802</v>
+        <v>2.412682974000788</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9694032806945074</v>
+        <v>0.9694032806945359</v>
       </c>
       <c r="K22">
-        <v>0.60636356786965</v>
+        <v>0.6063635678696642</v>
       </c>
       <c r="L22">
         <v>1.432908005489651</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.1439797463932</v>
+        <v>3.143979746392972</v>
       </c>
       <c r="C23">
-        <v>0.9338897259466137</v>
+        <v>0.9338897259464147</v>
       </c>
       <c r="D23">
-        <v>0.05689325108730259</v>
+        <v>0.05689325108767207</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.998775513393127</v>
+        <v>3.998775513393099</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9293620926017212</v>
+        <v>0.929362092601707</v>
       </c>
       <c r="K23">
-        <v>0.5808337154489749</v>
+        <v>0.5808337154489891</v>
       </c>
       <c r="L23">
-        <v>1.372609522239358</v>
+        <v>1.372609522239372</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.645020809209882</v>
+        <v>2.645020809209825</v>
       </c>
       <c r="C24">
-        <v>0.7851849370846651</v>
+        <v>0.7851849370842103</v>
       </c>
       <c r="D24">
-        <v>0.05387756919112974</v>
+        <v>0.05387756919078868</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.425574675369944</v>
+        <v>3.425574675369916</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.022717432587442</v>
+        <v>2.022717432587456</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7815809442698409</v>
+        <v>0.7815809442698338</v>
       </c>
       <c r="K24">
-        <v>0.4875503566214263</v>
+        <v>0.4875503566213837</v>
       </c>
       <c r="L24">
         <v>1.151156615989436</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.127731644162537</v>
+        <v>2.127731644162452</v>
       </c>
       <c r="C25">
-        <v>0.6315470216042343</v>
+        <v>0.6315470216040069</v>
       </c>
       <c r="D25">
-        <v>0.05110124678509465</v>
+        <v>0.05110124678499517</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.713793095492008</v>
+        <v>1.713793095492022</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6285104616723061</v>
+        <v>0.628510461672299</v>
       </c>
       <c r="K25">
         <v>0.392594939615968</v>
       </c>
       <c r="L25">
-        <v>0.9237416646182979</v>
+        <v>0.9237416646182766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.759484528560222</v>
+        <v>1.759484528560364</v>
       </c>
       <c r="C2">
-        <v>0.5224476185161109</v>
+        <v>0.5224476185158551</v>
       </c>
       <c r="D2">
-        <v>0.04936005375484598</v>
+        <v>0.04936005375483177</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.437795221760425</v>
+        <v>2.437795221760453</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0.5196131296787243</v>
       </c>
       <c r="K2">
-        <v>0.326192497379644</v>
+        <v>0.3261924973796226</v>
       </c>
       <c r="L2">
-        <v>0.7633372533747931</v>
+        <v>0.7633372533747718</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.51557066212871</v>
+        <v>1.515570662128852</v>
       </c>
       <c r="C3">
-        <v>0.4502769725247617</v>
+        <v>0.4502769725247333</v>
       </c>
       <c r="D3">
-        <v>0.04832545644295649</v>
+        <v>0.04832545644330821</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.361459044493415</v>
+        <v>1.361459044493429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4475062947760193</v>
+        <v>0.4475062947760122</v>
       </c>
       <c r="K3">
-        <v>0.2828199319494402</v>
+        <v>0.2828199319493976</v>
       </c>
       <c r="L3">
-        <v>0.6578548691086539</v>
+        <v>0.6578548691086326</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.367959283603653</v>
+        <v>1.367959283603454</v>
       </c>
       <c r="C4">
-        <v>0.4066244895284115</v>
+        <v>0.406624489528383</v>
       </c>
       <c r="D4">
-        <v>0.0477496666962729</v>
+        <v>0.04774966669615921</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0.4038740336841542</v>
       </c>
       <c r="K4">
-        <v>0.2568327891185263</v>
+        <v>0.2568327891185191</v>
       </c>
       <c r="L4">
         <v>0.5943473197477545</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308263326107692</v>
+        <v>1.308263326107721</v>
       </c>
       <c r="C5">
-        <v>0.3889737737613927</v>
+        <v>0.3889737737612222</v>
       </c>
       <c r="D5">
-        <v>0.04752834226153269</v>
+        <v>0.04752834226150782</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.953214057231307</v>
+        <v>1.953214057231335</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.246206308002115</v>
+        <v>1.24620630800213</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.386229067961537</v>
+        <v>0.3862290679615228</v>
       </c>
       <c r="K5">
-        <v>0.2463834052608078</v>
+        <v>0.2463834052608149</v>
       </c>
       <c r="L5">
-        <v>0.568739863793347</v>
+        <v>0.5687398637933256</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.29837612535357</v>
+        <v>1.298376125353712</v>
       </c>
       <c r="C6">
-        <v>0.386050448975567</v>
+        <v>0.3860504489755954</v>
       </c>
       <c r="D6">
-        <v>0.04749235074515212</v>
+        <v>0.04749235074514147</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.24077066749912</v>
+        <v>1.240770667499106</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.383306609828999</v>
+        <v>0.3833066098290061</v>
       </c>
       <c r="K6">
         <v>0.2446561976278403</v>
       </c>
       <c r="L6">
-        <v>0.5645029985360352</v>
+        <v>0.5645029985360281</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.367152459321574</v>
+        <v>1.367152459321687</v>
       </c>
       <c r="C7">
-        <v>0.4063859222266331</v>
+        <v>0.4063859222270025</v>
       </c>
       <c r="D7">
-        <v>0.04774662997797563</v>
+        <v>0.04774662997786905</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.2787012103813</v>
+        <v>1.278701210381328</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4036355511693088</v>
+        <v>0.4036355511692946</v>
       </c>
       <c r="K7">
         <v>0.2566913225996856</v>
       </c>
       <c r="L7">
-        <v>0.5940009213360469</v>
+        <v>0.594000921336054</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.674882911155748</v>
+        <v>1.674882911155777</v>
       </c>
       <c r="C8">
-        <v>0.4974083334653869</v>
+        <v>0.4974083334653585</v>
       </c>
       <c r="D8">
-        <v>0.04898994870319129</v>
+        <v>0.0489899487030776</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.34580666504128</v>
+        <v>2.345806665041252</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.451551702788649</v>
+        <v>1.451551702788635</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4946012259017749</v>
+        <v>0.4946012259017891</v>
       </c>
       <c r="K8">
-        <v>0.3110905681012568</v>
+        <v>0.3110905681012497</v>
       </c>
       <c r="L8">
-        <v>0.7266776903587271</v>
+        <v>0.7266776903587342</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.299693156751232</v>
+        <v>2.299693156751403</v>
       </c>
       <c r="C9">
-        <v>0.6825662624975735</v>
+        <v>0.6825662624982272</v>
       </c>
       <c r="D9">
-        <v>0.05198294921583368</v>
+        <v>0.05198294921605395</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.035439183089153</v>
+        <v>3.035439183089181</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.815471521386044</v>
+        <v>1.815471521386073</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6793812192032718</v>
+        <v>0.6793812192032647</v>
       </c>
       <c r="K9">
-        <v>0.4239526397578999</v>
+        <v>0.4239526397579425</v>
       </c>
       <c r="L9">
-        <v>0.9990821822416933</v>
+        <v>0.9990821822417075</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.778520127606498</v>
+        <v>2.778520127606612</v>
       </c>
       <c r="C10">
-        <v>0.8249193888321713</v>
+        <v>0.8249193888321429</v>
       </c>
       <c r="D10">
-        <v>0.05465285589873048</v>
+        <v>0.05465285589852442</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.577889091011798</v>
+        <v>3.577889091011741</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.103853489102903</v>
+        <v>2.103853489102889</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8211067538881736</v>
+        <v>0.8211067538881878</v>
       </c>
       <c r="K10">
-        <v>0.5123515029278707</v>
+        <v>0.5123515029278281</v>
       </c>
       <c r="L10">
-        <v>1.21021320492099</v>
+        <v>1.210213204920976</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.002416694455746</v>
+        <v>3.002416694455803</v>
       </c>
       <c r="C11">
         <v>0.8916443881549299</v>
       </c>
       <c r="D11">
-        <v>0.05600515806896311</v>
+        <v>0.05600515806906969</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.835082726552173</v>
+        <v>3.83508272655223</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.241117796125579</v>
+        <v>2.241117796125607</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8874194165284024</v>
+        <v>0.8874194165284166</v>
       </c>
       <c r="K11">
-        <v>0.554206027879836</v>
+        <v>0.5542060278798147</v>
       </c>
       <c r="L11">
-        <v>1.309580068473863</v>
+        <v>1.309580068473878</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.08824684803011</v>
+        <v>3.088246848030167</v>
       </c>
       <c r="C12">
-        <v>0.9172524749564843</v>
+        <v>0.9172524749566833</v>
       </c>
       <c r="D12">
         <v>0.05654058265054829</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.29411723740813</v>
+        <v>2.294117237408145</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0.912847964122534</v>
       </c>
       <c r="K12">
-        <v>0.5703354693580707</v>
+        <v>0.5703354693580494</v>
       </c>
       <c r="L12">
-        <v>1.347776529169494</v>
+        <v>1.347776529169508</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.069712290263737</v>
+        <v>3.069712290263681</v>
       </c>
       <c r="C13">
-        <v>0.9117211454057497</v>
+        <v>0.9117211454057781</v>
       </c>
       <c r="D13">
-        <v>0.05642416910840353</v>
+        <v>0.05642416910838932</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.912796751834293</v>
+        <v>3.91279675183435</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.282654916618412</v>
+        <v>2.282654916618426</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.907356433894833</v>
+        <v>0.9073564338947904</v>
       </c>
       <c r="K13">
-        <v>0.5668484781915879</v>
+        <v>0.5668484781916021</v>
       </c>
       <c r="L13">
-        <v>1.339523369893342</v>
+        <v>1.339523369893357</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.009455968702923</v>
+        <v>3.00945596870298</v>
       </c>
       <c r="C14">
-        <v>0.8937439892144425</v>
+        <v>0.8937439892145278</v>
       </c>
       <c r="D14">
-        <v>0.05604871780906251</v>
+        <v>0.05604871780902698</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.843203082908133</v>
+        <v>3.84320308290819</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.245456727161439</v>
+        <v>2.245456727161454</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0.8895047484204355</v>
       </c>
       <c r="K14">
-        <v>0.5555271184975794</v>
+        <v>0.5555271184975865</v>
       </c>
       <c r="L14">
         <v>1.312710555601527</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.97268889369866</v>
+        <v>2.972688893698603</v>
       </c>
       <c r="C15">
-        <v>0.8827787036008203</v>
+        <v>0.8827787036010477</v>
       </c>
       <c r="D15">
-        <v>0.05582189664986714</v>
+        <v>0.0558218966496753</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.800811997020674</v>
+        <v>3.80081199702073</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.222809355642966</v>
+        <v>2.222809355642994</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8786131021219603</v>
+        <v>0.8786131021219461</v>
       </c>
       <c r="K15">
-        <v>0.5486303473075296</v>
+        <v>0.5486303473075367</v>
       </c>
       <c r="L15">
         <v>1.296363872577032</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.764024342969719</v>
+        <v>2.764024342969833</v>
       </c>
       <c r="C16">
-        <v>0.8206031017981843</v>
+        <v>0.8206031017979569</v>
       </c>
       <c r="D16">
-        <v>0.05456754072920944</v>
+        <v>0.05456754072946524</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.561311917274537</v>
+        <v>3.561311917274594</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8168144405404405</v>
+        <v>0.8168144405404476</v>
       </c>
       <c r="K16">
-        <v>0.5096528561995726</v>
+        <v>0.5096528561995513</v>
       </c>
       <c r="L16">
-        <v>1.20379365057984</v>
+        <v>1.203793650579854</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.637686189410317</v>
       </c>
       <c r="C17">
-        <v>0.7830029373347713</v>
+        <v>0.7830029373349703</v>
       </c>
       <c r="D17">
-        <v>0.0538356554204924</v>
+        <v>0.05383565542039292</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.018275583629801</v>
+        <v>2.018275583629816</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7794096269902013</v>
+        <v>0.7794096269902084</v>
       </c>
       <c r="K17">
         <v>0.4861911605292732</v>
       </c>
       <c r="L17">
-        <v>1.147916193398018</v>
+        <v>1.147916193398004</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.565580090847561</v>
+        <v>2.565580090847504</v>
       </c>
       <c r="C18">
-        <v>0.7615576211811117</v>
+        <v>0.7615576211811685</v>
       </c>
       <c r="D18">
-        <v>0.05342741861181111</v>
+        <v>0.0534274186117969</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.335321681424887</v>
+        <v>3.335321681424915</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.974697973545418</v>
+        <v>1.974697973545446</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.758065087979368</v>
+        <v>0.7580650879793538</v>
       </c>
       <c r="K18">
-        <v>0.4728481272198906</v>
+        <v>0.4728481272198977</v>
       </c>
       <c r="L18">
         <v>1.116083526238739</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.541257590820351</v>
+        <v>2.541257590820521</v>
       </c>
       <c r="C19">
-        <v>0.7543261180454977</v>
+        <v>0.7543261180454692</v>
       </c>
       <c r="D19">
-        <v>0.05329128337169919</v>
+        <v>0.05329128337178446</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.307747452786259</v>
+        <v>3.307747452786344</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.960035767588565</v>
+        <v>1.960035767588607</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0.7508658600213067</v>
       </c>
       <c r="K19">
-        <v>0.4683551906241945</v>
+        <v>0.4683551906242087</v>
       </c>
       <c r="L19">
         <v>1.105355633682628</v>
@@ -1099,31 +1099,31 @@
         <v>2.651075950054008</v>
       </c>
       <c r="C20">
-        <v>0.7869863827488643</v>
+        <v>0.7869863827484949</v>
       </c>
       <c r="D20">
-        <v>0.05391222514345628</v>
+        <v>0.05391222514357707</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.432465851370807</v>
+        <v>3.432465851370779</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.026385689621875</v>
+        <v>2.02638568962189</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7833735104121189</v>
+        <v>0.7833735104121331</v>
       </c>
       <c r="K20">
-        <v>0.4886727187883437</v>
+        <v>0.4886727187883295</v>
       </c>
       <c r="L20">
         <v>1.153832100538693</v>
@@ -1140,31 +1140,31 @@
         <v>0.8990145634380724</v>
       </c>
       <c r="D21">
-        <v>0.05615833262809389</v>
+        <v>0.05615833262795178</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.863594518492562</v>
+        <v>3.86359451849259</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.256353771046349</v>
+        <v>2.256353771046335</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8947391493780401</v>
+        <v>0.8947391493780685</v>
       </c>
       <c r="K21">
         <v>0.5588444922301292</v>
       </c>
       <c r="L21">
-        <v>1.320569913701362</v>
+        <v>1.320569913701348</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.279086539956779</v>
+        <v>3.279086539956836</v>
       </c>
       <c r="C22">
-        <v>0.974251153029968</v>
+        <v>0.9742511530304796</v>
       </c>
       <c r="D22">
-        <v>0.05776439269381939</v>
+        <v>0.05776439269389755</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.155749488783954</v>
+        <v>4.155749488783925</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.412682974000788</v>
+        <v>2.412682974000802</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9694032806945359</v>
+        <v>0.9694032806945074</v>
       </c>
       <c r="K22">
-        <v>0.6063635678696642</v>
+        <v>0.60636356786965</v>
       </c>
       <c r="L22">
         <v>1.432908005489651</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.143979746392972</v>
+        <v>3.1439797463932</v>
       </c>
       <c r="C23">
-        <v>0.9338897259464147</v>
+        <v>0.9338897259466137</v>
       </c>
       <c r="D23">
-        <v>0.05689325108767207</v>
+        <v>0.05689325108730259</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.998775513393099</v>
+        <v>3.998775513393127</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.929362092601707</v>
+        <v>0.9293620926017212</v>
       </c>
       <c r="K23">
-        <v>0.5808337154489891</v>
+        <v>0.5808337154489749</v>
       </c>
       <c r="L23">
-        <v>1.372609522239372</v>
+        <v>1.372609522239358</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.645020809209825</v>
+        <v>2.645020809209882</v>
       </c>
       <c r="C24">
-        <v>0.7851849370842103</v>
+        <v>0.7851849370846651</v>
       </c>
       <c r="D24">
-        <v>0.05387756919078868</v>
+        <v>0.05387756919112974</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.425574675369916</v>
+        <v>3.425574675369944</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.022717432587456</v>
+        <v>2.022717432587442</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7815809442698338</v>
+        <v>0.7815809442698409</v>
       </c>
       <c r="K24">
-        <v>0.4875503566213837</v>
+        <v>0.4875503566214263</v>
       </c>
       <c r="L24">
         <v>1.151156615989436</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.127731644162452</v>
+        <v>2.127731644162537</v>
       </c>
       <c r="C25">
-        <v>0.6315470216040069</v>
+        <v>0.6315470216042343</v>
       </c>
       <c r="D25">
-        <v>0.05110124678499517</v>
+        <v>0.05110124678509465</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.713793095492022</v>
+        <v>1.713793095492008</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.628510461672299</v>
+        <v>0.6285104616723061</v>
       </c>
       <c r="K25">
         <v>0.392594939615968</v>
       </c>
       <c r="L25">
-        <v>0.9237416646182766</v>
+        <v>0.9237416646182979</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.759484528560364</v>
+        <v>1.744128305760313</v>
       </c>
       <c r="C2">
-        <v>0.5224476185158551</v>
+        <v>0.5129021924701078</v>
       </c>
       <c r="D2">
-        <v>0.04936005375483177</v>
+        <v>0.05240008361596793</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.437795221760453</v>
+        <v>2.452674849760513</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007895295888097193</v>
       </c>
       <c r="H2">
-        <v>1.499883075841439</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.513900440888648</v>
       </c>
       <c r="J2">
-        <v>0.5196131296787243</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3261924973796226</v>
+        <v>0.5139125338943344</v>
       </c>
       <c r="L2">
-        <v>0.7633372533747718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3252150283864523</v>
+      </c>
+      <c r="M2">
+        <v>0.7605683443498137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.515570662128852</v>
+        <v>1.50236468348038</v>
       </c>
       <c r="C3">
-        <v>0.4502769725247333</v>
+        <v>0.4417151899663452</v>
       </c>
       <c r="D3">
-        <v>0.04832545644330821</v>
+        <v>0.05147808527583564</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.173938752759938</v>
+        <v>2.191906688054573</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007978733758576201</v>
       </c>
       <c r="H3">
-        <v>1.361459044493429</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.377209729539814</v>
       </c>
       <c r="J3">
-        <v>0.4475062947760122</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2828199319493976</v>
+        <v>0.4425374151564299</v>
       </c>
       <c r="L3">
-        <v>0.6578548691086326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.281894214550654</v>
+      </c>
+      <c r="M3">
+        <v>0.6556310805542012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.367959283603454</v>
+        <v>1.356079145610209</v>
       </c>
       <c r="C4">
-        <v>0.406624489528383</v>
+        <v>0.3986705297351136</v>
       </c>
       <c r="D4">
-        <v>0.04774966669615921</v>
+        <v>0.05097119999098965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.01641014354098</v>
+        <v>2.036267980611896</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008031234188788362</v>
       </c>
       <c r="H4">
-        <v>1.279147811982313</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.29595763875443</v>
       </c>
       <c r="J4">
-        <v>0.4038740336841542</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2568327891185191</v>
+        <v>0.3993568909158682</v>
       </c>
       <c r="L4">
-        <v>0.5943473197477545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2559334267080118</v>
+      </c>
+      <c r="M4">
+        <v>0.5924520545523109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308263326107721</v>
+        <v>1.296925937110188</v>
       </c>
       <c r="C5">
-        <v>0.3889737737612222</v>
+        <v>0.3812689279051256</v>
       </c>
       <c r="D5">
-        <v>0.04752834226150782</v>
+        <v>0.05077794802954827</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.953214057231335</v>
+        <v>1.973842162323109</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008052965258375916</v>
       </c>
       <c r="H5">
-        <v>1.24620630800213</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.263447441100112</v>
       </c>
       <c r="J5">
-        <v>0.3862290679615228</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2463834052608149</v>
+        <v>0.3818969783019028</v>
       </c>
       <c r="L5">
-        <v>0.5687398637933256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.245493578677781</v>
+      </c>
+      <c r="M5">
+        <v>0.5669773546443722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298376125353712</v>
+        <v>1.287129036398596</v>
       </c>
       <c r="C6">
-        <v>0.3860504489755954</v>
+        <v>0.3783870663478126</v>
       </c>
       <c r="D6">
-        <v>0.04749235074514147</v>
+        <v>0.05074661893087296</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.942777126841349</v>
+        <v>1.963533187848739</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008056594509528492</v>
       </c>
       <c r="H6">
-        <v>1.240770667499106</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.258083427171414</v>
       </c>
       <c r="J6">
-        <v>0.3833066098290061</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2446561976278403</v>
+        <v>0.3790053159044149</v>
       </c>
       <c r="L6">
-        <v>0.5645029985360281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.243767885977725</v>
+      </c>
+      <c r="M6">
+        <v>0.5627624774758502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.367152459321687</v>
+        <v>1.355279629772923</v>
       </c>
       <c r="C7">
-        <v>0.4063859222270025</v>
+        <v>0.3984353157581211</v>
       </c>
       <c r="D7">
-        <v>0.04774662997786905</v>
+        <v>0.05096854183057076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.015553979679254</v>
+        <v>2.035422202256029</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008031525876734775</v>
       </c>
       <c r="H7">
-        <v>1.278701210381328</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.295516853902626</v>
       </c>
       <c r="J7">
-        <v>0.4036355511692946</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2566913225996856</v>
+        <v>0.3991208997468121</v>
       </c>
       <c r="L7">
-        <v>0.594000921336054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2557920934735307</v>
+      </c>
+      <c r="M7">
+        <v>0.5921074505342716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.674882911155777</v>
+        <v>1.660267609475312</v>
       </c>
       <c r="C8">
-        <v>0.4974083334653585</v>
+        <v>0.4882015539376994</v>
       </c>
       <c r="D8">
-        <v>0.0489899487030776</v>
+        <v>0.05206888366819129</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.345806665041252</v>
+        <v>2.361753548008636</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000792381287512911</v>
       </c>
       <c r="H8">
-        <v>1.451551702788635</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.466168409778774</v>
       </c>
       <c r="J8">
-        <v>0.4946012259017891</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3110905681012497</v>
+        <v>0.4891526380131168</v>
       </c>
       <c r="L8">
-        <v>0.7266776903587342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3101321711319045</v>
+      </c>
+      <c r="M8">
+        <v>0.7240983019449629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.299693156751403</v>
+        <v>2.279688885654821</v>
       </c>
       <c r="C9">
-        <v>0.6825662624982272</v>
+        <v>0.6709032994043014</v>
       </c>
       <c r="D9">
-        <v>0.05198294921605395</v>
+        <v>0.05477700041609523</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.035439183089181</v>
+        <v>3.043557007588845</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000772177985800412</v>
       </c>
       <c r="H9">
-        <v>1.815471521386073</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.825684136962678</v>
       </c>
       <c r="J9">
-        <v>0.6793812192032647</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4239526397579425</v>
+        <v>0.6721024950435037</v>
       </c>
       <c r="L9">
-        <v>0.9990821822417075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4228266343447018</v>
+      </c>
+      <c r="M9">
+        <v>0.9950855944903054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.778520127606612</v>
+        <v>2.754458221184677</v>
       </c>
       <c r="C10">
-        <v>0.8249193888321429</v>
+        <v>0.8114175515029842</v>
       </c>
       <c r="D10">
-        <v>0.05465285589852442</v>
+        <v>0.05723050682261999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.577889091011741</v>
+        <v>3.58002320425561</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007577571940969112</v>
       </c>
       <c r="H10">
-        <v>2.103853489102889</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.110689845138069</v>
       </c>
       <c r="J10">
-        <v>0.8211067538881878</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5123515029278281</v>
+        <v>0.8124540988192734</v>
       </c>
       <c r="L10">
-        <v>1.210213204920976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5110562279631097</v>
+      </c>
+      <c r="M10">
+        <v>1.205092666521736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.002416694455803</v>
+        <v>2.976461815199343</v>
       </c>
       <c r="C11">
-        <v>0.8916443881549299</v>
+        <v>0.8772877869620856</v>
       </c>
       <c r="D11">
-        <v>0.05600515806906969</v>
+        <v>0.05848163026697506</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.83508272655223</v>
+        <v>3.834403552280008</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007512528836517386</v>
       </c>
       <c r="H11">
-        <v>2.241117796125607</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.246364191612585</v>
       </c>
       <c r="J11">
-        <v>0.8874194165284166</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5542060278798147</v>
+        <v>0.8781269338886801</v>
       </c>
       <c r="L11">
-        <v>1.309580068473878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.552819432571944</v>
+      </c>
+      <c r="M11">
+        <v>1.303919176374848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.088246848030167</v>
+        <v>3.061565702724636</v>
       </c>
       <c r="C12">
-        <v>0.9172524749566833</v>
+        <v>0.902568461638765</v>
       </c>
       <c r="D12">
-        <v>0.05654058265054829</v>
+        <v>0.05897822604683967</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.93423320833304</v>
+        <v>3.932471373403359</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007487944430644401</v>
       </c>
       <c r="H12">
-        <v>2.294117237408145</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.298751354017853</v>
       </c>
       <c r="J12">
-        <v>0.912847964122534</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5703354693580494</v>
+        <v>0.9033101914582744</v>
       </c>
       <c r="L12">
-        <v>1.347776529169508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5689117710757117</v>
+      </c>
+      <c r="M12">
+        <v>1.341905670704918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.069712290263681</v>
+        <v>3.043188027209567</v>
       </c>
       <c r="C13">
-        <v>0.9117211454057781</v>
+        <v>0.8971078320650747</v>
       </c>
       <c r="D13">
-        <v>0.05642416910838932</v>
+        <v>0.05887020003663679</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.91279675183435</v>
+        <v>3.911268933799562</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007493237673366589</v>
       </c>
       <c r="H13">
-        <v>2.282654916618426</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.287421395456647</v>
       </c>
       <c r="J13">
-        <v>0.9073564338947904</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5668484781916021</v>
+        <v>0.8978716380192395</v>
       </c>
       <c r="L13">
-        <v>1.339523369893357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5654328913771067</v>
+      </c>
+      <c r="M13">
+        <v>1.333697990471748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.00945596870298</v>
+        <v>2.983441545390178</v>
       </c>
       <c r="C14">
-        <v>0.8937439892145278</v>
+        <v>0.8793605335247321</v>
       </c>
       <c r="D14">
-        <v>0.05604871780902698</v>
+        <v>0.05852200662442186</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.84320308290819</v>
+        <v>3.842435211814831</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007510505553947431</v>
       </c>
       <c r="H14">
-        <v>2.245456727161454</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.250652969952682</v>
       </c>
       <c r="J14">
-        <v>0.8895047484204355</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5555271184975865</v>
+        <v>0.8801921513692434</v>
       </c>
       <c r="L14">
-        <v>1.312710555601527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5541375242779836</v>
+      </c>
+      <c r="M14">
+        <v>1.307032504155771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.972688893698603</v>
+        <v>2.946985444865788</v>
       </c>
       <c r="C15">
-        <v>0.8827787036010477</v>
+        <v>0.8685355198936691</v>
       </c>
       <c r="D15">
-        <v>0.0558218966496753</v>
+        <v>0.05831181072164071</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.80081199702073</v>
+        <v>3.800507219856655</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007521087524243274</v>
       </c>
       <c r="H15">
-        <v>2.222809355642994</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.228267433813258</v>
       </c>
       <c r="J15">
-        <v>0.8786131021219461</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5486303473075367</v>
+        <v>0.8694055622399759</v>
       </c>
       <c r="L15">
-        <v>1.296363872577032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5472563303440268</v>
+      </c>
+      <c r="M15">
+        <v>1.290775328719974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.764024342969833</v>
+        <v>2.740084982479743</v>
       </c>
       <c r="C16">
-        <v>0.8206031017979569</v>
+        <v>0.8071566681077513</v>
       </c>
       <c r="D16">
-        <v>0.05456754072946524</v>
+        <v>0.05715173898494896</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.561311917274594</v>
+        <v>3.563627707333666</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007581831067282179</v>
       </c>
       <c r="H16">
-        <v>2.095017298955042</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.101956277910972</v>
       </c>
       <c r="J16">
-        <v>0.8168144405404476</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5096528561995513</v>
+        <v>0.8082032308754421</v>
       </c>
       <c r="L16">
-        <v>1.203793650579854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.508363223835623</v>
+      </c>
+      <c r="M16">
+        <v>1.198707746398441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.637686189410317</v>
+        <v>2.61481523124462</v>
       </c>
       <c r="C17">
-        <v>0.7830029373349703</v>
+        <v>0.7700398852912826</v>
       </c>
       <c r="D17">
-        <v>0.05383565542039292</v>
+        <v>0.05647691339388672</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.417229603223802</v>
+        <v>3.421126899910291</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007619215239407229</v>
       </c>
       <c r="H17">
-        <v>2.018275583629816</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.026107613262965</v>
       </c>
       <c r="J17">
-        <v>0.7794096269902084</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4861911605292732</v>
+        <v>0.7711598825614061</v>
       </c>
       <c r="L17">
-        <v>1.147916193398004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4849493296501919</v>
+      </c>
+      <c r="M17">
+        <v>1.143130441257966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.565580090847504</v>
+        <v>2.543319399329334</v>
       </c>
       <c r="C18">
-        <v>0.7615576211811685</v>
+        <v>0.7488709569353773</v>
       </c>
       <c r="D18">
-        <v>0.0534274186117969</v>
+        <v>0.05610124658215199</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.335321681424915</v>
+        <v>3.340120322070845</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007640772432404574</v>
       </c>
       <c r="H18">
-        <v>1.974697973545446</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.983038740560048</v>
       </c>
       <c r="J18">
-        <v>0.7580650879793538</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4728481272198977</v>
+        <v>0.7500219148031348</v>
       </c>
       <c r="L18">
-        <v>1.116083526238739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4716324757767367</v>
+      </c>
+      <c r="M18">
+        <v>1.111467760507303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.541257590820521</v>
+        <v>2.519202868062848</v>
       </c>
       <c r="C19">
-        <v>0.7543261180454692</v>
+        <v>0.741732782622563</v>
       </c>
       <c r="D19">
-        <v>0.05329128337178446</v>
+        <v>0.05597609952074123</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.307747452786344</v>
+        <v>3.312849963587951</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007648081709734296</v>
       </c>
       <c r="H19">
-        <v>1.960035767588607</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.968548005490916</v>
       </c>
       <c r="J19">
-        <v>0.7508658600213067</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4683551906242087</v>
+        <v>0.7428924230801144</v>
       </c>
       <c r="L19">
-        <v>1.105355633682628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4671481897740009</v>
+      </c>
+      <c r="M19">
+        <v>1.100796998515548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.651075950054008</v>
+        <v>2.628091716156291</v>
       </c>
       <c r="C20">
-        <v>0.7869863827484949</v>
+        <v>0.7739720510539883</v>
       </c>
       <c r="D20">
-        <v>0.05391222514357707</v>
+        <v>0.05654743561684228</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.432465851370779</v>
+        <v>3.436195680624621</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007615230189858785</v>
       </c>
       <c r="H20">
-        <v>2.02638568962189</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.034123177947194</v>
       </c>
       <c r="J20">
-        <v>0.7833735104121331</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4886727187883295</v>
+        <v>0.7750854312317585</v>
       </c>
       <c r="L20">
-        <v>1.153832100538693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4874259384580597</v>
+      </c>
+      <c r="M20">
+        <v>1.149014678983853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.0271248462264</v>
+        <v>3.000960950616729</v>
       </c>
       <c r="C21">
-        <v>0.8990145634380724</v>
+        <v>0.8845637041531234</v>
       </c>
       <c r="D21">
-        <v>0.05615833262795178</v>
+        <v>0.05862363018283645</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.86359451849259</v>
+        <v>3.862603940473463</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000750543260602532</v>
       </c>
       <c r="H21">
-        <v>2.256353771046335</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.261424080053217</v>
       </c>
       <c r="J21">
-        <v>0.8947391493780685</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5588444922301292</v>
+        <v>0.8853760626003435</v>
       </c>
       <c r="L21">
-        <v>1.320569913701348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5574473360155139</v>
+      </c>
+      <c r="M21">
+        <v>1.314848744082894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.279086539956836</v>
+        <v>3.250787895204837</v>
       </c>
       <c r="C22">
-        <v>0.9742511530304796</v>
+        <v>0.9588390100701361</v>
       </c>
       <c r="D22">
-        <v>0.05776439269389755</v>
+        <v>0.06011556955725439</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.155749488783925</v>
+        <v>4.151570259787121</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007433922159185342</v>
       </c>
       <c r="H22">
-        <v>2.412682974000802</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.415949217721348</v>
       </c>
       <c r="J22">
-        <v>0.9694032806945074</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.60636356786965</v>
+        <v>0.959319584862186</v>
       </c>
       <c r="L22">
-        <v>1.432908005489651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6048531358160503</v>
+      </c>
+      <c r="M22">
+        <v>1.426564290147269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.1439797463932</v>
+        <v>3.116826665494898</v>
       </c>
       <c r="C23">
-        <v>0.9338897259466137</v>
+        <v>0.9189931151130395</v>
       </c>
       <c r="D23">
-        <v>0.05689325108730259</v>
+        <v>0.05930566352042632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.998775513393127</v>
+        <v>3.996309219297956</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007472078492533568</v>
       </c>
       <c r="H23">
-        <v>2.328641138929058</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.332876746759922</v>
       </c>
       <c r="J23">
-        <v>0.9293620926017212</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5808337154489749</v>
+        <v>0.919664983591673</v>
       </c>
       <c r="L23">
-        <v>1.372609522239358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5793852950025737</v>
+      </c>
+      <c r="M23">
+        <v>1.366601442988426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.645020809209882</v>
+        <v>2.622087799449105</v>
       </c>
       <c r="C24">
-        <v>0.7851849370846651</v>
+        <v>0.7721937935579319</v>
       </c>
       <c r="D24">
-        <v>0.05387756919112974</v>
+        <v>0.05651551446028691</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.425574675369944</v>
+        <v>3.429380240904663</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007617031627877891</v>
       </c>
       <c r="H24">
-        <v>2.022717432587442</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.030497677468134</v>
       </c>
       <c r="J24">
-        <v>0.7815809442698409</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4875503566214263</v>
+        <v>0.7733102000295133</v>
       </c>
       <c r="L24">
-        <v>1.151156615989436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4863058179609183</v>
+      </c>
+      <c r="M24">
+        <v>1.146353520112996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.127731644162537</v>
+        <v>2.109194954228144</v>
       </c>
       <c r="C25">
-        <v>0.6315470216042343</v>
+        <v>0.6205513724961236</v>
       </c>
       <c r="D25">
-        <v>0.05110124678509465</v>
+        <v>0.05397325837599709</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.843401931374302</v>
+        <v>2.853666367262264</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007775583762883453</v>
       </c>
       <c r="H25">
-        <v>1.713793095492008</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.725214888483663</v>
       </c>
       <c r="J25">
-        <v>0.6285104616723061</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.392594939615968</v>
+        <v>0.6217295098145499</v>
       </c>
       <c r="L25">
-        <v>0.9237416646182979</v>
+        <v>0.3915211420924649</v>
+      </c>
+      <c r="M25">
+        <v>0.9201397730592831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.744128305760313</v>
+        <v>1.846710859184128</v>
       </c>
       <c r="C2">
-        <v>0.5129021924701078</v>
+        <v>0.377123661556567</v>
       </c>
       <c r="D2">
-        <v>0.05240008361596793</v>
+        <v>0.01406678635114211</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.452674849760513</v>
+        <v>1.232230001278324</v>
       </c>
       <c r="G2">
-        <v>0.0007895295888097193</v>
+        <v>0.000780739803628695</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.513900440888648</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5139125338943344</v>
+        <v>0.4917591243134325</v>
       </c>
       <c r="L2">
-        <v>0.3252150283864523</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7605683443498137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.809629690768531</v>
+      </c>
+      <c r="N2">
+        <v>0.7725836379090367</v>
+      </c>
+      <c r="O2">
+        <v>0.9238681578351162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.50236468348038</v>
+        <v>1.596454961734651</v>
       </c>
       <c r="C3">
-        <v>0.4417151899663452</v>
+        <v>0.3281631404205427</v>
       </c>
       <c r="D3">
-        <v>0.05147808527583564</v>
+        <v>0.01501999394447129</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.191906688054573</v>
+        <v>1.106519356811205</v>
       </c>
       <c r="G3">
-        <v>0.0007978733758576201</v>
+        <v>0.0007873863790184266</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.377209729539814</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4425374151564299</v>
+        <v>0.4252068764865271</v>
       </c>
       <c r="L3">
-        <v>0.281894214550654</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6556310805542012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.388534153765377</v>
+      </c>
+      <c r="N3">
+        <v>0.8070505724516792</v>
+      </c>
+      <c r="O3">
+        <v>0.8359004545514921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.356079145610209</v>
+        <v>1.444267594336992</v>
       </c>
       <c r="C4">
-        <v>0.3986705297351136</v>
+        <v>0.2982893221857523</v>
       </c>
       <c r="D4">
-        <v>0.05097119999098965</v>
+        <v>0.01561401546431718</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.036267980611896</v>
+        <v>1.032031890808398</v>
       </c>
       <c r="G4">
-        <v>0.0008031234188788362</v>
+        <v>0.0007915700227784913</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.29595763875443</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3993568909158682</v>
+        <v>0.3846996456850604</v>
       </c>
       <c r="L4">
-        <v>0.2559334267080118</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5924520545523109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.139514303635934</v>
+      </c>
+      <c r="N4">
+        <v>0.8299099511595927</v>
+      </c>
+      <c r="O4">
+        <v>0.7840370294760532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.296925937110188</v>
+        <v>1.382562657494333</v>
       </c>
       <c r="C5">
-        <v>0.3812689279051256</v>
+        <v>0.2861526632248115</v>
       </c>
       <c r="D5">
-        <v>0.05077794802954827</v>
+        <v>0.0158582039249362</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.973842162323109</v>
+        <v>1.002287577821676</v>
       </c>
       <c r="G5">
-        <v>0.0008052965258375916</v>
+        <v>0.0007933021754179596</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.263447441100112</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3818969783019028</v>
+        <v>0.3682673108820111</v>
       </c>
       <c r="L5">
-        <v>0.245493578677781</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5669773546443722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.040017119758716</v>
+      </c>
+      <c r="N5">
+        <v>0.8396263053881938</v>
+      </c>
+      <c r="O5">
+        <v>0.7633888944347973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.287129036398596</v>
+        <v>1.372333890629989</v>
       </c>
       <c r="C6">
-        <v>0.3783870663478126</v>
+        <v>0.2841393410374025</v>
       </c>
       <c r="D6">
-        <v>0.05074661893087296</v>
+        <v>0.01589887729779704</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.963533187848739</v>
+        <v>0.9973834983623107</v>
       </c>
       <c r="G6">
-        <v>0.0008056594509528492</v>
+        <v>0.0007935914863432372</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.258083427171414</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3790053159044149</v>
+        <v>0.3655428311681348</v>
       </c>
       <c r="L6">
-        <v>0.243767885977725</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5627624774758502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.023604274120075</v>
+      </c>
+      <c r="N6">
+        <v>0.8412632134958216</v>
+      </c>
+      <c r="O6">
+        <v>0.759988197870463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.355279629772923</v>
+        <v>1.443434226612027</v>
       </c>
       <c r="C7">
-        <v>0.3984353157581211</v>
+        <v>0.2981255054040446</v>
       </c>
       <c r="D7">
-        <v>0.05096854183057076</v>
+        <v>0.01561730018338015</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.035422202256029</v>
+        <v>1.031628365549267</v>
       </c>
       <c r="G7">
-        <v>0.0008031525876734775</v>
+        <v>0.0007915932708245359</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.295516853902626</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3991208997468121</v>
+        <v>0.3844777499168472</v>
       </c>
       <c r="L7">
-        <v>0.2557920934735307</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5921074505342716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.138164937255183</v>
+      </c>
+      <c r="N7">
+        <v>0.830039397863942</v>
+      </c>
+      <c r="O7">
+        <v>0.7837566587046396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.660267609475312</v>
+        <v>1.760081541917174</v>
       </c>
       <c r="C8">
-        <v>0.4882015539376994</v>
+        <v>0.36019669529054</v>
       </c>
       <c r="D8">
-        <v>0.05206888366819129</v>
+        <v>0.01439358240380706</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.361753548008636</v>
+        <v>1.18828124657459</v>
       </c>
       <c r="G8">
-        <v>0.000792381287512911</v>
+        <v>0.0007830111846706982</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.466168409778774</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4891526380131168</v>
+        <v>0.4687286957405661</v>
       </c>
       <c r="L8">
-        <v>0.3101321711319045</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7240983019449629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.662184912041866</v>
+      </c>
+      <c r="N8">
+        <v>0.7840994829948826</v>
+      </c>
+      <c r="O8">
+        <v>0.8930568721369383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.279688885654821</v>
+        <v>2.39553565997528</v>
       </c>
       <c r="C9">
-        <v>0.6709032994043014</v>
+        <v>0.4839089907625009</v>
       </c>
       <c r="D9">
-        <v>0.05477700041609523</v>
+        <v>0.01206798187778357</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.043557007588845</v>
+        <v>1.520380769014693</v>
       </c>
       <c r="G9">
-        <v>0.000772177985800412</v>
+        <v>0.0007669195474454382</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.825684136962678</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6721024950435037</v>
+        <v>0.6375063567931889</v>
       </c>
       <c r="L9">
-        <v>0.4228266343447018</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9950855944903054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.7884755159875</v>
+      </c>
+      <c r="N9">
+        <v>0.708776734779839</v>
+      </c>
+      <c r="O9">
+        <v>1.127172923369756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.754458221184677</v>
+        <v>2.875639209741735</v>
       </c>
       <c r="C10">
-        <v>0.8114175515029842</v>
+        <v>0.5767692232391539</v>
       </c>
       <c r="D10">
-        <v>0.05723050682261999</v>
+        <v>0.0104130436994021</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.58002320425561</v>
+        <v>1.785121785186874</v>
       </c>
       <c r="G10">
-        <v>0.0007577571940969112</v>
+        <v>0.0007554209879233113</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.110689845138069</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8124540988192734</v>
+        <v>0.7648122636883343</v>
       </c>
       <c r="L10">
-        <v>0.5110562279631097</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.205092666521736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.717374360503584</v>
+      </c>
+      <c r="N10">
+        <v>0.6645380813071853</v>
+      </c>
+      <c r="O10">
+        <v>1.315598752516664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.976461815199343</v>
+        <v>3.098030939289629</v>
       </c>
       <c r="C11">
-        <v>0.8772877869620856</v>
+        <v>0.619624286540585</v>
       </c>
       <c r="D11">
-        <v>0.05848163026697506</v>
+        <v>0.009674414685785671</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.834403552280008</v>
+        <v>1.911558145612986</v>
       </c>
       <c r="G11">
-        <v>0.0007512528836517386</v>
+        <v>0.000750224886644269</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.246364191612585</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8781269338886801</v>
+        <v>0.8237281491434203</v>
       </c>
       <c r="L11">
-        <v>0.552819432571944</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.303919176374848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.175018076281376</v>
+      </c>
+      <c r="N11">
+        <v>0.6473972111085118</v>
+      </c>
+      <c r="O11">
+        <v>1.406059449271751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.061565702724636</v>
+        <v>3.18292237865677</v>
       </c>
       <c r="C12">
-        <v>0.902568461638765</v>
+        <v>0.6359567360582332</v>
       </c>
       <c r="D12">
-        <v>0.05897822604683967</v>
+        <v>0.009397037820052745</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.932471373403359</v>
+        <v>1.96045077422913</v>
       </c>
       <c r="G12">
-        <v>0.0007487944430644401</v>
+        <v>0.0007482584706637568</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.298751354017853</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9033101914582744</v>
+        <v>0.8462087149480624</v>
       </c>
       <c r="L12">
-        <v>0.5689117710757117</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.341905670704918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.354892782925376</v>
+      </c>
+      <c r="N12">
+        <v>0.641394698553114</v>
+      </c>
+      <c r="O12">
+        <v>1.441116171539917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.043188027209567</v>
+        <v>3.164607635862353</v>
       </c>
       <c r="C13">
-        <v>0.8971078320650747</v>
+        <v>0.6324343519349043</v>
       </c>
       <c r="D13">
-        <v>0.05887020003663679</v>
+        <v>0.00945666740779938</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.911268933799562</v>
+        <v>1.949873075139877</v>
       </c>
       <c r="G13">
-        <v>0.0007493237673366589</v>
+        <v>0.0007486819882326</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.287421395456647</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8978716380192395</v>
+        <v>0.8413591000126246</v>
       </c>
       <c r="L13">
-        <v>0.5654328913771067</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.333697990471748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.315831296912435</v>
+      </c>
+      <c r="N13">
+        <v>0.6426646549303143</v>
+      </c>
+      <c r="O13">
+        <v>1.433528305627959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.983441545390178</v>
+        <v>3.105000819706049</v>
       </c>
       <c r="C14">
-        <v>0.8793605335247321</v>
+        <v>0.6209657838427631</v>
       </c>
       <c r="D14">
-        <v>0.05852200662442186</v>
+        <v>0.009651546311253867</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.842435211814831</v>
+        <v>1.915559288300713</v>
       </c>
       <c r="G14">
-        <v>0.0007510505553947431</v>
+        <v>0.0007500631083327354</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.250652969952682</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8801921513692434</v>
+        <v>0.8255740647553438</v>
       </c>
       <c r="L14">
-        <v>0.5541375242779836</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.307032504155771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.189674150481039</v>
+      </c>
+      <c r="N14">
+        <v>0.6468932114807444</v>
+      </c>
+      <c r="O14">
+        <v>1.408926767268795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.946985444865788</v>
+        <v>3.068581277818168</v>
       </c>
       <c r="C15">
-        <v>0.8685355198936691</v>
+        <v>0.613955014048571</v>
       </c>
       <c r="D15">
-        <v>0.05831181072164071</v>
+        <v>0.009771227416682571</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.800507219856655</v>
+        <v>1.894678089015116</v>
       </c>
       <c r="G15">
-        <v>0.0007521087524243274</v>
+        <v>0.0007509091186152781</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.228267433813258</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8694055622399759</v>
+        <v>0.815928285782185</v>
       </c>
       <c r="L15">
-        <v>0.5472563303440268</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.290775328719974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.113309345947101</v>
+      </c>
+      <c r="N15">
+        <v>0.6495488831311746</v>
+      </c>
+      <c r="O15">
+        <v>1.393965869006308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.740084982479743</v>
+        <v>2.861194197504972</v>
       </c>
       <c r="C16">
-        <v>0.8071566681077513</v>
+        <v>0.5739822223487465</v>
       </c>
       <c r="D16">
-        <v>0.05715173898494896</v>
+        <v>0.01046162379330529</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.563627707333666</v>
+        <v>1.776991949332213</v>
       </c>
       <c r="G16">
-        <v>0.0007581831067282179</v>
+        <v>0.0007557609615612956</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.101956277910972</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8082032308754421</v>
+        <v>0.760984336749523</v>
       </c>
       <c r="L16">
-        <v>0.508363223835623</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.198707746398441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.688292381438188</v>
+      </c>
+      <c r="N16">
+        <v>0.6657231314564314</v>
+      </c>
+      <c r="O16">
+        <v>1.309792086702515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.61481523124462</v>
+        <v>2.735060418954788</v>
       </c>
       <c r="C17">
-        <v>0.7700398852912826</v>
+        <v>0.5496282179233276</v>
       </c>
       <c r="D17">
-        <v>0.05647691339388672</v>
+        <v>0.01088898445003661</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.421126899910291</v>
+        <v>1.706432062087131</v>
       </c>
       <c r="G17">
-        <v>0.0007619215239407229</v>
+        <v>0.00075874387710817</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.026107613262965</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7711598825614061</v>
+        <v>0.7275527976259397</v>
       </c>
       <c r="L17">
-        <v>0.4849493296501919</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.143130441257966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.43749147271933</v>
+      </c>
+      <c r="N17">
+        <v>0.6764484651407443</v>
+      </c>
+      <c r="O17">
+        <v>1.259447499589655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.543319399329334</v>
+        <v>2.6628803832578</v>
       </c>
       <c r="C18">
-        <v>0.7488709569353773</v>
+        <v>0.5356770590385906</v>
       </c>
       <c r="D18">
-        <v>0.05610124658215199</v>
+        <v>0.01113610866403913</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.340120322070845</v>
+        <v>1.666402645309049</v>
       </c>
       <c r="G18">
-        <v>0.0007640772432404574</v>
+        <v>0.0007604630994157945</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.983038740560048</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7500219148031348</v>
+        <v>0.7084166281053257</v>
       </c>
       <c r="L18">
-        <v>0.4716324757767367</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.111467760507303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.296425562273001</v>
+      </c>
+      <c r="N18">
+        <v>0.6828940874076324</v>
+      </c>
+      <c r="O18">
+        <v>1.230929004090342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.519202868062848</v>
+        <v>2.638501858487928</v>
       </c>
       <c r="C19">
-        <v>0.741732782622563</v>
+        <v>0.5309626867187376</v>
       </c>
       <c r="D19">
-        <v>0.05597609952074123</v>
+        <v>0.01121999920254702</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.312849963587951</v>
+        <v>1.652940494846547</v>
       </c>
       <c r="G19">
-        <v>0.0007648081709734296</v>
+        <v>0.0007610459051970924</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.968548005490916</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7428924230801144</v>
+        <v>0.7019526325048986</v>
       </c>
       <c r="L19">
-        <v>0.4671481897740009</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.100796998515548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.249171372629064</v>
+      </c>
+      <c r="N19">
+        <v>0.6851223565897868</v>
+      </c>
+      <c r="O19">
+        <v>1.221345142811927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.628091716156291</v>
+        <v>2.748448700815061</v>
       </c>
       <c r="C20">
-        <v>0.7739720510539883</v>
+        <v>0.5522147697942899</v>
       </c>
       <c r="D20">
-        <v>0.05654743561684228</v>
+        <v>0.01084335292015481</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.436195680624621</v>
+        <v>1.713884861778141</v>
       </c>
       <c r="G20">
-        <v>0.0007615230189858785</v>
+        <v>0.0007584260000008878</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.034123177947194</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7750854312317585</v>
+        <v>0.7311018607963859</v>
       </c>
       <c r="L20">
-        <v>0.4874259384580597</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.149014678983853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.463850101576455</v>
+      </c>
+      <c r="N20">
+        <v>0.6752777040423226</v>
+      </c>
+      <c r="O20">
+        <v>1.264760603407098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.000960950616729</v>
+        <v>3.12248954797127</v>
       </c>
       <c r="C21">
-        <v>0.8845637041531234</v>
+        <v>0.6243314203637453</v>
       </c>
       <c r="D21">
-        <v>0.05862363018283645</v>
+        <v>0.009594240026365775</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.862603940473463</v>
+        <v>1.925609221833085</v>
       </c>
       <c r="G21">
-        <v>0.000750543260602532</v>
+        <v>0.0007496574407918735</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.261424080053217</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8853760626003435</v>
+        <v>0.8302056663859716</v>
       </c>
       <c r="L21">
-        <v>0.5574473360155139</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.314848744082894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.226536429766625</v>
+      </c>
+      <c r="N21">
+        <v>0.6456373965728233</v>
+      </c>
+      <c r="O21">
+        <v>1.416130030091736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.250787895204837</v>
+        <v>3.370946730370349</v>
       </c>
       <c r="C22">
-        <v>0.9588390100701361</v>
+        <v>0.6720790496498239</v>
       </c>
       <c r="D22">
-        <v>0.06011556955725439</v>
+        <v>0.008791597004822904</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.151570259787121</v>
+        <v>2.069985245002201</v>
       </c>
       <c r="G22">
-        <v>0.0007433922159185342</v>
+        <v>0.000743931410783981</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.415949217721348</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.959319584862186</v>
+        <v>0.8959830614774091</v>
       </c>
       <c r="L22">
-        <v>0.6048531358160503</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.426564290147269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.76443808924779</v>
+      </c>
+      <c r="N22">
+        <v>0.6291490431445794</v>
+      </c>
+      <c r="O22">
+        <v>1.519801811385634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.116826665494898</v>
+        <v>3.237937324010034</v>
       </c>
       <c r="C23">
-        <v>0.9189931151130395</v>
+        <v>0.6465334056838685</v>
       </c>
       <c r="D23">
-        <v>0.05930566352042632</v>
+        <v>0.009218620423529167</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.996309219297956</v>
+        <v>1.992322315676105</v>
       </c>
       <c r="G23">
-        <v>0.0007472078492533568</v>
+        <v>0.0007469885617475616</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.332876746759922</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.919664983591673</v>
+        <v>0.8607749191440206</v>
       </c>
       <c r="L23">
-        <v>0.5793852950025737</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.366601442988426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.473092751476514</v>
+      </c>
+      <c r="N23">
+        <v>0.6376625055038545</v>
+      </c>
+      <c r="O23">
+        <v>1.463990656973195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.622087799449105</v>
+        <v>2.742394819779406</v>
       </c>
       <c r="C24">
-        <v>0.7721937935579319</v>
+        <v>0.5510452342820713</v>
       </c>
       <c r="D24">
-        <v>0.05651551446028691</v>
+        <v>0.01086397850482168</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.429380240904663</v>
+        <v>1.710513791249568</v>
       </c>
       <c r="G24">
-        <v>0.0007617031627877891</v>
+        <v>0.0007585696986010851</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.030497677468134</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7733102000295133</v>
+        <v>0.7294970694208232</v>
       </c>
       <c r="L24">
-        <v>0.4863058179609183</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.146353520112996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.451923746646202</v>
+      </c>
+      <c r="N24">
+        <v>0.675806138923555</v>
+      </c>
+      <c r="O24">
+        <v>1.26235723319833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.109194954228144</v>
+        <v>2.221648061777273</v>
       </c>
       <c r="C25">
-        <v>0.6205513724961236</v>
+        <v>0.4501540376208766</v>
       </c>
       <c r="D25">
-        <v>0.05397325837599709</v>
+        <v>0.01268843219547477</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.853666367262264</v>
+        <v>1.427343474864713</v>
       </c>
       <c r="G25">
-        <v>0.0007775583762883453</v>
+        <v>0.0007712055394233057</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.725214888483663</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6217295098145499</v>
+        <v>0.5913556637620658</v>
       </c>
       <c r="L25">
-        <v>0.3915211420924649</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9201397730592831</v>
+        <v>3.469545271809068</v>
+      </c>
+      <c r="N25">
+        <v>0.7273746857464687</v>
+      </c>
+      <c r="O25">
+        <v>1.061306407948777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.846710859184128</v>
+        <v>2.468154215326763</v>
       </c>
       <c r="C2">
-        <v>0.377123661556567</v>
+        <v>0.7012317435242323</v>
       </c>
       <c r="D2">
-        <v>0.01406678635114211</v>
+        <v>0.3391105064462323</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.232230001278324</v>
+        <v>0.8706804464810745</v>
       </c>
       <c r="G2">
-        <v>0.000780739803628695</v>
+        <v>0.0007837261834706457</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1956167617291307</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4442244345177642</v>
       </c>
       <c r="K2">
-        <v>0.4917591243134325</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.809629690768531</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7725836379090367</v>
+        <v>0.7025607017412341</v>
       </c>
       <c r="O2">
-        <v>0.9238681578351162</v>
+        <v>1.641267596271348</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.596454961734651</v>
+        <v>2.145914593461328</v>
       </c>
       <c r="C3">
-        <v>0.3281631404205427</v>
+        <v>0.6105133120435653</v>
       </c>
       <c r="D3">
-        <v>0.01501999394447129</v>
+        <v>0.3011191184969846</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.106519356811205</v>
+        <v>0.7983696842981232</v>
       </c>
       <c r="G3">
-        <v>0.0007873863790184266</v>
+        <v>0.0007880769115006905</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1951587581784757</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3916076514126843</v>
       </c>
       <c r="K3">
-        <v>0.4252068764865271</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.388534153765377</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8070505724516792</v>
+        <v>0.7062314219506405</v>
       </c>
       <c r="O3">
-        <v>0.8359004545514921</v>
+        <v>1.523685809569344</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444267594336992</v>
+        <v>1.948337146331426</v>
       </c>
       <c r="C4">
-        <v>0.2982893221857523</v>
+        <v>0.5548909709071097</v>
       </c>
       <c r="D4">
-        <v>0.01561401546431718</v>
+        <v>0.278076467115298</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.032031890808398</v>
+        <v>0.7557297146617685</v>
       </c>
       <c r="G4">
-        <v>0.0007915700227784913</v>
+        <v>0.0007908347610763589</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1955890134205234</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3598814737273415</v>
       </c>
       <c r="K4">
-        <v>0.3846996456850604</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.139514303635934</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8299099511595927</v>
+        <v>0.7093830250306752</v>
       </c>
       <c r="O4">
-        <v>0.7840370294760532</v>
+        <v>1.455541978953676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.382562657494333</v>
+        <v>1.867865559240272</v>
       </c>
       <c r="C5">
-        <v>0.2861526632248115</v>
+        <v>0.5322354886413905</v>
       </c>
       <c r="D5">
-        <v>0.0158582039249362</v>
+        <v>0.268751347219407</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.002287577821676</v>
+        <v>0.7387648843999557</v>
       </c>
       <c r="G5">
-        <v>0.0007933021754179596</v>
+        <v>0.0007919808117029711</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1959335453094049</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3470847423181311</v>
       </c>
       <c r="K5">
-        <v>0.3682673108820111</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.040017119758716</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8396263053881938</v>
+        <v>0.7108851975126029</v>
       </c>
       <c r="O5">
-        <v>0.7633888944347973</v>
+        <v>1.428722997554303</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.372333890629989</v>
+        <v>1.854505135682501</v>
       </c>
       <c r="C6">
-        <v>0.2841393410374025</v>
+        <v>0.528473985212969</v>
       </c>
       <c r="D6">
-        <v>0.01589887729779704</v>
+        <v>0.2672066574578906</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9973834983623107</v>
+        <v>0.7359718535557391</v>
       </c>
       <c r="G6">
-        <v>0.0007935914863432372</v>
+        <v>0.0007921724665654883</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1960006994286303</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3449674276096175</v>
       </c>
       <c r="K6">
-        <v>0.3655428311681348</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.023604274120075</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8412632134958216</v>
+        <v>0.7111475690173208</v>
       </c>
       <c r="O6">
-        <v>0.759988197870463</v>
+        <v>1.424325176837925</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.443434226612027</v>
+        <v>1.947251739781592</v>
       </c>
       <c r="C7">
-        <v>0.2981255054040446</v>
+        <v>0.5545853975507384</v>
       </c>
       <c r="D7">
-        <v>0.01561730018338015</v>
+        <v>0.2779504506576558</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.031628365549267</v>
+        <v>0.7554992954666631</v>
       </c>
       <c r="G7">
-        <v>0.0007915932708245359</v>
+        <v>0.0007908501266722188</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.195592987279511</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.359708376319972</v>
       </c>
       <c r="K7">
-        <v>0.3844777499168472</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.138164937255183</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.830039397863942</v>
+        <v>0.7094024117939881</v>
       </c>
       <c r="O7">
-        <v>0.7837566587046396</v>
+        <v>1.455176529614704</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.760081541917174</v>
+        <v>2.35697098707476</v>
       </c>
       <c r="C8">
-        <v>0.36019669529054</v>
+        <v>0.6699300748813073</v>
       </c>
       <c r="D8">
-        <v>0.01439358240380706</v>
+        <v>0.3259480315775818</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.18828124657459</v>
+        <v>0.8453633461697336</v>
       </c>
       <c r="G8">
-        <v>0.0007830111846706982</v>
+        <v>0.0007852086471604229</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1953051770909475</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4259528809730853</v>
       </c>
       <c r="K8">
-        <v>0.4687286957405661</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.662184912041866</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7840994829948826</v>
+        <v>0.7036351476613092</v>
       </c>
       <c r="O8">
-        <v>0.8930568721369383</v>
+        <v>1.599841883225054</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.39553565997528</v>
+        <v>3.164007283826834</v>
       </c>
       <c r="C9">
-        <v>0.4839089907625009</v>
+        <v>0.8971890243097391</v>
       </c>
       <c r="D9">
-        <v>0.01206798187778357</v>
+        <v>0.42264489586384</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.520380769014693</v>
+        <v>1.037042188825183</v>
       </c>
       <c r="G9">
-        <v>0.0007669195474454382</v>
+        <v>0.0007748099656462425</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2008498413250024</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5611510169340619</v>
       </c>
       <c r="K9">
-        <v>0.6375063567931889</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.7884755159875</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.708776734779839</v>
+        <v>0.6998281913647446</v>
       </c>
       <c r="O9">
-        <v>1.127172923369756</v>
+        <v>1.918986319785944</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.875639209741735</v>
+        <v>3.761220962468599</v>
       </c>
       <c r="C10">
-        <v>0.5767692232391539</v>
+        <v>1.065486759998805</v>
       </c>
       <c r="D10">
-        <v>0.0104130436994021</v>
+        <v>0.495739222804076</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.785121785186874</v>
+        <v>1.189530484411165</v>
       </c>
       <c r="G10">
-        <v>0.0007554209879233113</v>
+        <v>0.0007675422887064076</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2093348669452944</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6647401543587534</v>
       </c>
       <c r="K10">
-        <v>0.7648122636883343</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.717374360503584</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6645380813071853</v>
+        <v>0.7021691257755975</v>
       </c>
       <c r="O10">
-        <v>1.315598752516664</v>
+        <v>2.180009781428765</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.098030939289629</v>
+        <v>4.034353599852579</v>
       </c>
       <c r="C11">
-        <v>0.619624286540585</v>
+        <v>1.142505878961174</v>
       </c>
       <c r="D11">
-        <v>0.009674414685785671</v>
+        <v>0.5295541878245729</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.911558145612986</v>
+        <v>1.26197447703683</v>
       </c>
       <c r="G11">
-        <v>0.000750224886644269</v>
+        <v>0.0007643090660531056</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2143176934590549</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7130415146065303</v>
       </c>
       <c r="K11">
-        <v>0.8237281491434203</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.175018076281376</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6473972111085118</v>
+        <v>0.7044852125050198</v>
       </c>
       <c r="O11">
-        <v>1.406059449271751</v>
+        <v>2.305710686006734</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.18292237865677</v>
+        <v>4.138037131939541</v>
       </c>
       <c r="C12">
-        <v>0.6359567360582332</v>
+        <v>1.171752149005727</v>
       </c>
       <c r="D12">
-        <v>0.009397037820052745</v>
+        <v>0.5424506714005304</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.96045077422913</v>
+        <v>1.289898462371795</v>
       </c>
       <c r="G12">
-        <v>0.0007482584706637568</v>
+        <v>0.0007630945174988625</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2163809854340464</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7315241976322682</v>
       </c>
       <c r="K12">
-        <v>0.8462087149480624</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.354892782925376</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.641394698553114</v>
+        <v>0.705554418180327</v>
       </c>
       <c r="O12">
-        <v>1.441116171539917</v>
+        <v>2.354419011509776</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.164607635862353</v>
+        <v>4.115694973126153</v>
       </c>
       <c r="C13">
-        <v>0.6324343519349043</v>
+        <v>1.165449598827365</v>
       </c>
       <c r="D13">
-        <v>0.00945666740779938</v>
+        <v>0.5396689388677203</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.949873075139877</v>
+        <v>1.283861876576012</v>
       </c>
       <c r="G13">
-        <v>0.0007486819882326</v>
+        <v>0.0007633556676516644</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2159285227346004</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7275347006245028</v>
       </c>
       <c r="K13">
-        <v>0.8413591000126246</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.315831296912435</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6426646549303143</v>
+        <v>0.7053153948859858</v>
       </c>
       <c r="O13">
-        <v>1.433528305627959</v>
+        <v>2.343877715576127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.105000819706049</v>
+        <v>4.04287834375998</v>
       </c>
       <c r="C14">
-        <v>0.6209657838427631</v>
+        <v>1.144910278667169</v>
       </c>
       <c r="D14">
-        <v>0.009651546311253867</v>
+        <v>0.530613293004734</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.915559288300713</v>
+        <v>1.264261666405176</v>
       </c>
       <c r="G14">
-        <v>0.0007500631083327354</v>
+        <v>0.0007642089520627111</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2144838166634102</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.714558111509831</v>
       </c>
       <c r="K14">
-        <v>0.8255740647553438</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.189674150481039</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6468932114807444</v>
+        <v>0.7045692523070386</v>
       </c>
       <c r="O14">
-        <v>1.408926767268795</v>
+        <v>2.309695095048227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.068581277818168</v>
+        <v>3.998310541771957</v>
       </c>
       <c r="C15">
-        <v>0.613955014048571</v>
+        <v>1.132340334638513</v>
       </c>
       <c r="D15">
-        <v>0.009771227416682571</v>
+        <v>0.525078686656542</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.894678089015116</v>
+        <v>1.252321428940149</v>
       </c>
       <c r="G15">
-        <v>0.0007509091186152781</v>
+        <v>0.0007647328689577903</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2136223283884711</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.706635285017839</v>
       </c>
       <c r="K15">
-        <v>0.815928285782185</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.113309345947101</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6495488831311746</v>
+        <v>0.7041376212506236</v>
       </c>
       <c r="O15">
-        <v>1.393965869006308</v>
+        <v>2.288904896472445</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.861194197504972</v>
+        <v>3.743404147250487</v>
       </c>
       <c r="C16">
-        <v>0.5739822223487465</v>
+        <v>1.060463854764123</v>
       </c>
       <c r="D16">
-        <v>0.01046162379330529</v>
+        <v>0.4935415524011546</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.776991949332213</v>
+        <v>1.184862071007288</v>
       </c>
       <c r="G16">
-        <v>0.0007557609615612956</v>
+        <v>0.0007677549972011257</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2090330736963395</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6616091409620992</v>
       </c>
       <c r="K16">
-        <v>0.760984336749523</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.688292381438188</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6657231314564314</v>
+        <v>0.7020439664586036</v>
       </c>
       <c r="O16">
-        <v>1.309792086702515</v>
+        <v>2.171943959135945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.735060418954788</v>
+        <v>3.587431056380467</v>
       </c>
       <c r="C17">
-        <v>0.5496282179233276</v>
+        <v>1.016497727463957</v>
       </c>
       <c r="D17">
-        <v>0.01088898445003661</v>
+        <v>0.4743461125615624</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.706432062087131</v>
+        <v>1.144299239394712</v>
       </c>
       <c r="G17">
-        <v>0.00075874387710817</v>
+        <v>0.0007696271750908027</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2065155885030912</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6343042783917383</v>
       </c>
       <c r="K17">
-        <v>0.7275527976259397</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.43749147271933</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6764484651407443</v>
+        <v>0.701088459146078</v>
       </c>
       <c r="O17">
-        <v>1.259447499589655</v>
+        <v>2.102048481872657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.6628803832578</v>
+        <v>3.497853719038972</v>
       </c>
       <c r="C18">
-        <v>0.5356770590385906</v>
+        <v>0.9912518787961346</v>
       </c>
       <c r="D18">
-        <v>0.01113610866403913</v>
+        <v>0.4633578165091308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.666402645309049</v>
+        <v>1.121254989447138</v>
       </c>
       <c r="G18">
-        <v>0.0007604630994157945</v>
+        <v>0.0007707109056245366</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2051723351442405</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6187086724386859</v>
       </c>
       <c r="K18">
-        <v>0.7084166281053257</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.296425562273001</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6828940874076324</v>
+        <v>0.7006558592544252</v>
       </c>
       <c r="O18">
-        <v>1.230929004090342</v>
+        <v>2.062494646399301</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.638501858487928</v>
+        <v>3.46754613500525</v>
       </c>
       <c r="C19">
-        <v>0.5309626867187376</v>
+        <v>0.982710907932784</v>
       </c>
       <c r="D19">
-        <v>0.01121999920254702</v>
+        <v>0.4596460678825451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.652940494846547</v>
+        <v>1.113500376395464</v>
       </c>
       <c r="G19">
-        <v>0.0007610459051970924</v>
+        <v>0.0007710790435632287</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2047350852619907</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6134464058217617</v>
       </c>
       <c r="K19">
-        <v>0.7019526325048986</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.249171372629064</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6851223565897868</v>
+        <v>0.7005291220368122</v>
       </c>
       <c r="O19">
-        <v>1.221345142811927</v>
+        <v>2.049210596104842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.748448700815061</v>
+        <v>3.604020452188195</v>
       </c>
       <c r="C20">
-        <v>0.5522147697942899</v>
+        <v>1.021173516158086</v>
       </c>
       <c r="D20">
-        <v>0.01084335292015481</v>
+        <v>0.4763840028584525</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.713884861778141</v>
+        <v>1.148587239061214</v>
       </c>
       <c r="G20">
-        <v>0.0007584260000008878</v>
+        <v>0.0007694271688289754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.206772634715584</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6371994447084859</v>
       </c>
       <c r="K20">
-        <v>0.7311018607963859</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.463850101576455</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6752777040423226</v>
+        <v>0.7011779815127568</v>
       </c>
       <c r="O20">
-        <v>1.264760603407098</v>
+        <v>2.109421139476893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.12248954797127</v>
+        <v>4.064259080825138</v>
       </c>
       <c r="C21">
-        <v>0.6243314203637453</v>
+        <v>1.15094085789417</v>
       </c>
       <c r="D21">
-        <v>0.009594240026365775</v>
+        <v>0.5332705854611675</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.925609221833085</v>
+        <v>1.270004989478792</v>
       </c>
       <c r="G21">
-        <v>0.0007496574407918735</v>
+        <v>0.0007639580612890329</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2149032495282235</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7183642494068181</v>
       </c>
       <c r="K21">
-        <v>0.8302056663859716</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.226536429766625</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6456373965728233</v>
+        <v>0.7047830954133332</v>
       </c>
       <c r="O21">
-        <v>1.416130030091736</v>
+        <v>2.319704386553752</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.370946730370349</v>
+        <v>4.366556501369075</v>
       </c>
       <c r="C22">
-        <v>0.6720790496498239</v>
+        <v>1.236230131845446</v>
       </c>
       <c r="D22">
-        <v>0.008791597004822904</v>
+        <v>0.5709880094813684</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.069985245002201</v>
+        <v>1.352246077499984</v>
       </c>
       <c r="G22">
-        <v>0.000743931410783981</v>
+        <v>0.0007604404686104329</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2212530841574747</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7725412482946297</v>
       </c>
       <c r="K22">
-        <v>0.8959830614774091</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.76443808924779</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6291490431445794</v>
+        <v>0.7082656137342838</v>
       </c>
       <c r="O22">
-        <v>1.519801811385634</v>
+        <v>2.463651893330336</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.237937324010034</v>
+        <v>4.205061198356475</v>
       </c>
       <c r="C23">
-        <v>0.6465334056838685</v>
+        <v>1.190660603602225</v>
       </c>
       <c r="D23">
-        <v>0.009218620423529167</v>
+        <v>0.5508045447945733</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.992322315676105</v>
+        <v>1.308071105305785</v>
       </c>
       <c r="G23">
-        <v>0.0007469885617475616</v>
+        <v>0.0007623129156645208</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2177640196956538</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7435144763980475</v>
       </c>
       <c r="K23">
-        <v>0.8607749191440206</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.473092751476514</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6376625055038545</v>
+        <v>0.7062995807334431</v>
       </c>
       <c r="O23">
-        <v>1.463990656973195</v>
+        <v>2.386190471120187</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.742394819779406</v>
+        <v>3.596520097904261</v>
       </c>
       <c r="C24">
-        <v>0.5510452342820713</v>
+        <v>1.01905949705116</v>
       </c>
       <c r="D24">
-        <v>0.01086397850482168</v>
+        <v>0.4754625257333487</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.710513791249568</v>
+        <v>1.146647778792399</v>
       </c>
       <c r="G24">
-        <v>0.0007585696986010851</v>
+        <v>0.0007695175686095776</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2066561010439827</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6358902229864043</v>
       </c>
       <c r="K24">
-        <v>0.7294970694208232</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.451923746646202</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.675806138923555</v>
+        <v>0.7011371457649318</v>
       </c>
       <c r="O24">
-        <v>1.26235723319833</v>
+        <v>2.106086006653243</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.221648061777273</v>
+        <v>2.945092447922775</v>
       </c>
       <c r="C25">
-        <v>0.4501540376208766</v>
+        <v>0.8355283629046255</v>
       </c>
       <c r="D25">
-        <v>0.01268843219547477</v>
+        <v>0.3961627174082878</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.427343474864713</v>
+        <v>0.9833119949829552</v>
       </c>
       <c r="G25">
-        <v>0.0007712055394233057</v>
+        <v>0.0007775552235311234</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1986277991505112</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5239079332169894</v>
       </c>
       <c r="K25">
-        <v>0.5913556637620658</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.469545271809068</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7273746857464687</v>
+        <v>0.6999990594322441</v>
       </c>
       <c r="O25">
-        <v>1.061306407948777</v>
+        <v>1.828365769944384</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.468154215326763</v>
+        <v>0.8958579383065057</v>
       </c>
       <c r="C2">
-        <v>0.7012317435242323</v>
+        <v>0.2247595374067828</v>
       </c>
       <c r="D2">
-        <v>0.3391105064462323</v>
+        <v>0.3319435897582679</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8706804464810745</v>
+        <v>1.174130829997679</v>
       </c>
       <c r="G2">
-        <v>0.0007837261834706457</v>
+        <v>0.002417822349252524</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1956167617291307</v>
+        <v>0.4468222055563444</v>
       </c>
       <c r="J2">
-        <v>0.4442244345177642</v>
+        <v>0.3476189276469199</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7025607017412341</v>
+        <v>0.9778347057375498</v>
       </c>
       <c r="O2">
-        <v>1.641267596271348</v>
+        <v>2.412498572457594</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145914593461328</v>
+        <v>0.7985604697435065</v>
       </c>
       <c r="C3">
-        <v>0.6105133120435653</v>
+        <v>0.1971300892429326</v>
       </c>
       <c r="D3">
-        <v>0.3011191184969846</v>
+        <v>0.3232883474917969</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7983696842981232</v>
+        <v>1.166228234281647</v>
       </c>
       <c r="G3">
-        <v>0.0007880769115006905</v>
+        <v>0.00242073139868274</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1951587581784757</v>
+        <v>0.4518980869209024</v>
       </c>
       <c r="J3">
-        <v>0.3916076514126843</v>
+        <v>0.3360577617490037</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7062314219506405</v>
+        <v>0.9814234588060984</v>
       </c>
       <c r="O3">
-        <v>1.523685809569344</v>
+        <v>2.407310167648546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948337146331426</v>
+        <v>0.7388045868442532</v>
       </c>
       <c r="C4">
-        <v>0.5548909709071097</v>
+        <v>0.1801297771864654</v>
       </c>
       <c r="D4">
-        <v>0.278076467115298</v>
+        <v>0.3181145741445448</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7557297146617685</v>
+        <v>1.162158867636791</v>
       </c>
       <c r="G4">
-        <v>0.0007908347610763589</v>
+        <v>0.002422613250547532</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1955890134205234</v>
+        <v>0.4553437244751066</v>
       </c>
       <c r="J4">
-        <v>0.3598814737273415</v>
+        <v>0.329167463114203</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7093830250306752</v>
+        <v>0.9840343465379391</v>
       </c>
       <c r="O4">
-        <v>1.455541978953676</v>
+        <v>2.405881948729188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.867865559240272</v>
+        <v>0.7144512798417111</v>
       </c>
       <c r="C5">
-        <v>0.5322354886413905</v>
+        <v>0.1731933604411608</v>
       </c>
       <c r="D5">
-        <v>0.268751347219407</v>
+        <v>0.3160416689919856</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7387648843999557</v>
+        <v>1.160697185313637</v>
       </c>
       <c r="G5">
-        <v>0.0007919808117029711</v>
+        <v>0.00242340425413124</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1959335453094049</v>
+        <v>0.4568304185298011</v>
       </c>
       <c r="J5">
-        <v>0.3470847423181311</v>
+        <v>0.3264119005761472</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7108851975126029</v>
+        <v>0.9852009196453864</v>
       </c>
       <c r="O5">
-        <v>1.428722997554303</v>
+        <v>2.405741073243689</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854505135682501</v>
+        <v>0.710407335169549</v>
       </c>
       <c r="C6">
-        <v>0.528473985212969</v>
+        <v>0.1720410609483451</v>
       </c>
       <c r="D6">
-        <v>0.2672066574578906</v>
+        <v>0.3156996086723893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7359718535557391</v>
+        <v>1.16046634235343</v>
       </c>
       <c r="G6">
-        <v>0.0007921724665654883</v>
+        <v>0.002423537059486641</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1960006994286303</v>
+        <v>0.4570822649938364</v>
       </c>
       <c r="J6">
-        <v>0.3449674276096175</v>
+        <v>0.3259574971127677</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7111475690173208</v>
+        <v>0.9854008312185911</v>
       </c>
       <c r="O6">
-        <v>1.424325176837925</v>
+        <v>2.405744301159444</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947251739781592</v>
+        <v>0.7384761570394005</v>
       </c>
       <c r="C7">
-        <v>0.5545853975507384</v>
+        <v>0.1800362648334328</v>
       </c>
       <c r="D7">
-        <v>0.2779504506576558</v>
+        <v>0.3180864745549883</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7554992954666631</v>
+        <v>1.162138359099188</v>
       </c>
       <c r="G7">
-        <v>0.0007908501266722188</v>
+        <v>0.002422623820549365</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.195592987279511</v>
+        <v>0.455363440456523</v>
       </c>
       <c r="J7">
-        <v>0.359708376319972</v>
+        <v>0.3291300890307269</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7094024117939881</v>
+        <v>0.9840496636299534</v>
       </c>
       <c r="O7">
-        <v>1.455176529614704</v>
+        <v>2.405878263757614</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.35697098707476</v>
+        <v>0.8623136804514502</v>
       </c>
       <c r="C8">
-        <v>0.6699300748813073</v>
+        <v>0.2152405067602103</v>
       </c>
       <c r="D8">
-        <v>0.3259480315775818</v>
+        <v>0.3289301409490264</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8453633461697336</v>
+        <v>1.171243382787537</v>
       </c>
       <c r="G8">
-        <v>0.0007852086471604229</v>
+        <v>0.002418805574423825</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1953051770909475</v>
+        <v>0.4485039794284411</v>
       </c>
       <c r="J8">
-        <v>0.4259528809730853</v>
+        <v>0.3435893457580477</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7036351476613092</v>
+        <v>0.9789876592773723</v>
       </c>
       <c r="O8">
-        <v>1.599841883225054</v>
+        <v>2.410344355260435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.164007283826834</v>
+        <v>1.104989903737021</v>
       </c>
       <c r="C9">
-        <v>0.8971890243097391</v>
+        <v>0.2839813169477168</v>
       </c>
       <c r="D9">
-        <v>0.42264489586384</v>
+        <v>0.3513070242476886</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.037042188825183</v>
+        <v>1.195323465710231</v>
       </c>
       <c r="G9">
-        <v>0.0007748099656462425</v>
+        <v>0.002412073867122722</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2008498413250024</v>
+        <v>0.43767087619036</v>
       </c>
       <c r="J9">
-        <v>0.5611510169340619</v>
+        <v>0.373602642138934</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6998281913647446</v>
+        <v>0.9722865148499977</v>
       </c>
       <c r="O9">
-        <v>1.918986319785944</v>
+        <v>2.433087569356871</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.761220962468599</v>
+        <v>1.283130306744283</v>
       </c>
       <c r="C10">
-        <v>1.065486759998805</v>
+        <v>0.3342954703116447</v>
       </c>
       <c r="D10">
-        <v>0.495739222804076</v>
+        <v>0.3684236380674122</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.189530484411165</v>
+        <v>1.216832826748004</v>
       </c>
       <c r="G10">
-        <v>0.0007675422887064076</v>
+        <v>0.002407584185763126</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2093348669452944</v>
+        <v>0.4313185726825637</v>
       </c>
       <c r="J10">
-        <v>0.6647401543587534</v>
+        <v>0.3966755800465904</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7021691257755975</v>
+        <v>0.9693213624961885</v>
       </c>
       <c r="O10">
-        <v>2.180009781428765</v>
+        <v>2.458385010120224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034353599852579</v>
+        <v>1.36412791747756</v>
       </c>
       <c r="C11">
-        <v>1.142505878961174</v>
+        <v>0.3571416509150254</v>
       </c>
       <c r="D11">
-        <v>0.5295541878245729</v>
+        <v>0.3763570209600857</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.26197447703683</v>
+        <v>1.227452118134494</v>
       </c>
       <c r="G11">
-        <v>0.0007643090660531056</v>
+        <v>0.002405639754356148</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2143176934590549</v>
+        <v>0.4287799373963388</v>
       </c>
       <c r="J11">
-        <v>0.7130415146065303</v>
+        <v>0.4073965349386697</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7044852125050198</v>
+        <v>0.9683960948349721</v>
       </c>
       <c r="O11">
-        <v>2.305710686006734</v>
+        <v>2.47177208133823</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.138037131939541</v>
+        <v>1.39479274039553</v>
       </c>
       <c r="C12">
-        <v>1.171752149005727</v>
+        <v>0.3657866028133299</v>
       </c>
       <c r="D12">
-        <v>0.5424506714005304</v>
+        <v>0.3793822498334976</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.289898462371795</v>
+        <v>1.231593716365438</v>
       </c>
       <c r="G12">
-        <v>0.0007630945174988625</v>
+        <v>0.002404917457782128</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2163809854340464</v>
+        <v>0.427869293296137</v>
       </c>
       <c r="J12">
-        <v>0.7315241976322682</v>
+        <v>0.4114887751559735</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.705554418180327</v>
+        <v>0.968106501462529</v>
       </c>
       <c r="O12">
-        <v>2.354419011509776</v>
+        <v>2.477112633217587</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.115694973126153</v>
+        <v>1.388188867690701</v>
       </c>
       <c r="C13">
-        <v>1.165449598827365</v>
+        <v>0.3639250482097509</v>
       </c>
       <c r="D13">
-        <v>0.5396689388677203</v>
+        <v>0.3787297790239847</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.283861876576012</v>
+        <v>1.230696393918379</v>
       </c>
       <c r="G13">
-        <v>0.0007633556676516644</v>
+        <v>0.002405072395041125</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2159285227346004</v>
+        <v>0.4280631595147781</v>
       </c>
       <c r="J13">
-        <v>0.7275347006245028</v>
+        <v>0.4106059933379385</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7053153948859858</v>
+        <v>0.9681661690905088</v>
       </c>
       <c r="O13">
-        <v>2.343877715576127</v>
+        <v>2.475950374984535</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.04287834375998</v>
+        <v>1.366650884393721</v>
       </c>
       <c r="C14">
-        <v>1.144910278667169</v>
+        <v>0.357853006674361</v>
       </c>
       <c r="D14">
-        <v>0.530613293004734</v>
+        <v>0.3766054874928955</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.264261666405176</v>
+        <v>1.227790437187267</v>
       </c>
       <c r="G14">
-        <v>0.0007642089520627111</v>
+        <v>0.002405580050034653</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2144838166634102</v>
+        <v>0.4287040012694519</v>
       </c>
       <c r="J14">
-        <v>0.714558111509831</v>
+        <v>0.407732555148911</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7045692523070386</v>
+        <v>0.9683710522911468</v>
       </c>
       <c r="O14">
-        <v>2.309695095048227</v>
+        <v>2.472206011946128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.998310541771957</v>
+        <v>1.353457262123072</v>
       </c>
       <c r="C15">
-        <v>1.132340334638513</v>
+        <v>0.354132861539199</v>
       </c>
       <c r="D15">
-        <v>0.525078686656542</v>
+        <v>0.3753070331537742</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.252321428940149</v>
+        <v>1.226026130463623</v>
       </c>
       <c r="G15">
-        <v>0.0007647328689577903</v>
+        <v>0.002405892826963068</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2136223283884711</v>
+        <v>0.4291031415777624</v>
       </c>
       <c r="J15">
-        <v>0.706635285017839</v>
+        <v>0.4059767198024247</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7041376212506236</v>
+        <v>0.9685044615502107</v>
       </c>
       <c r="O15">
-        <v>2.288904896472445</v>
+        <v>2.469947822234587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.743404147250487</v>
+        <v>1.277835997430202</v>
       </c>
       <c r="C16">
-        <v>1.060463854764123</v>
+        <v>0.3328015427737512</v>
       </c>
       <c r="D16">
-        <v>0.4935415524011546</v>
+        <v>0.3679081210939898</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.184862071007288</v>
+        <v>1.216155649838655</v>
       </c>
       <c r="G16">
-        <v>0.0007677549972011257</v>
+        <v>0.002407713224163016</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2090330736963395</v>
+        <v>0.431491559782792</v>
       </c>
       <c r="J16">
-        <v>0.6616091409620992</v>
+        <v>0.3959794756007966</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7020439664586036</v>
+        <v>0.9693903437363929</v>
       </c>
       <c r="O16">
-        <v>2.171943959135945</v>
+        <v>2.457548027018561</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.587431056380467</v>
+        <v>1.231433613381398</v>
       </c>
       <c r="C17">
-        <v>1.016497727463957</v>
+        <v>0.3197044579949022</v>
       </c>
       <c r="D17">
-        <v>0.4743461125615624</v>
+        <v>0.3634066926782964</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.144299239394712</v>
+        <v>1.210314392236171</v>
       </c>
       <c r="G17">
-        <v>0.0007696271750908027</v>
+        <v>0.002408855017714254</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2065155885030912</v>
+        <v>0.4330468340654932</v>
       </c>
       <c r="J17">
-        <v>0.6343042783917383</v>
+        <v>0.3899041776225545</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.701088459146078</v>
+        <v>0.9700422043823949</v>
       </c>
       <c r="O17">
-        <v>2.102048481872657</v>
+        <v>2.450423116093674</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.497853719038972</v>
+        <v>1.204740578015958</v>
       </c>
       <c r="C18">
-        <v>0.9912518787961346</v>
+        <v>0.3121674315626137</v>
       </c>
       <c r="D18">
-        <v>0.4633578165091308</v>
+        <v>0.3608314277825855</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.121254989447138</v>
+        <v>1.207033192039489</v>
       </c>
       <c r="G18">
-        <v>0.0007707109056245366</v>
+        <v>0.002409520970268854</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2051723351442405</v>
+        <v>0.4339744181033751</v>
       </c>
       <c r="J18">
-        <v>0.6187086724386859</v>
+        <v>0.3864309953096949</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7006558592544252</v>
+        <v>0.9704570153686944</v>
       </c>
       <c r="O18">
-        <v>2.062494646399301</v>
+        <v>2.446501872926746</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.46754613500525</v>
+        <v>1.19570220212546</v>
       </c>
       <c r="C19">
-        <v>0.982710907932784</v>
+        <v>0.3096148601057678</v>
       </c>
       <c r="D19">
-        <v>0.4596460678825451</v>
+        <v>0.3599618670883444</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.113500376395464</v>
+        <v>1.205935713887143</v>
       </c>
       <c r="G19">
-        <v>0.0007710790435632287</v>
+        <v>0.00240974803645635</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2047350852619907</v>
+        <v>0.4342941492036232</v>
       </c>
       <c r="J19">
-        <v>0.6134464058217617</v>
+        <v>0.3852586681516499</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7005291220368122</v>
+        <v>0.9706043162922384</v>
       </c>
       <c r="O19">
-        <v>2.049210596104842</v>
+        <v>2.445204547230617</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.604020452188195</v>
+        <v>1.236373611424881</v>
       </c>
       <c r="C20">
-        <v>1.021173516158086</v>
+        <v>0.3210990743784237</v>
       </c>
       <c r="D20">
-        <v>0.4763840028584525</v>
+        <v>0.3638844460114967</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.148587239061214</v>
+        <v>1.210928073709468</v>
       </c>
       <c r="G20">
-        <v>0.0007694271688289754</v>
+        <v>0.002408732517649161</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.206772634715584</v>
+        <v>0.432877852385861</v>
       </c>
       <c r="J20">
-        <v>0.6371994447084859</v>
+        <v>0.3905487119038327</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7011779815127568</v>
+        <v>0.9699686864184685</v>
       </c>
       <c r="O20">
-        <v>2.109421139476893</v>
+        <v>2.451163268291282</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.064259080825138</v>
+        <v>1.372977320344035</v>
       </c>
       <c r="C21">
-        <v>1.15094085789417</v>
+        <v>0.3596366890755007</v>
       </c>
       <c r="D21">
-        <v>0.5332705854611675</v>
+        <v>0.377228873503185</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.270004989478792</v>
+        <v>1.228640719801049</v>
       </c>
       <c r="G21">
-        <v>0.0007639580612890329</v>
+        <v>0.002405430559557887</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2149032495282235</v>
+        <v>0.428514393422418</v>
       </c>
       <c r="J21">
-        <v>0.7183642494068181</v>
+        <v>0.4085756722045915</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7047830954133332</v>
+        <v>0.9683092244138294</v>
       </c>
       <c r="O21">
-        <v>2.319704386553752</v>
+        <v>2.4732984554729</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.366556501369075</v>
+        <v>1.462212971771066</v>
       </c>
       <c r="C22">
-        <v>1.236230131845446</v>
+        <v>0.3847857708007041</v>
       </c>
       <c r="D22">
-        <v>0.5709880094813684</v>
+        <v>0.3860727538397839</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.352246077499984</v>
+        <v>1.240918311918833</v>
       </c>
       <c r="G22">
-        <v>0.0007604404686104329</v>
+        <v>0.002403354213214722</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2212530841574747</v>
+        <v>0.4259581270551109</v>
       </c>
       <c r="J22">
-        <v>0.7725412482946297</v>
+        <v>0.4205465061179865</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7082656137342838</v>
+        <v>0.9675789190679609</v>
       </c>
       <c r="O22">
-        <v>2.463651893330336</v>
+        <v>2.489346036005969</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.205061198356475</v>
+        <v>1.414590651192782</v>
       </c>
       <c r="C23">
-        <v>1.190660603602225</v>
+        <v>0.3713667817498276</v>
       </c>
       <c r="D23">
-        <v>0.5508045447945733</v>
+        <v>0.3813414310696999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.308071105305785</v>
+        <v>1.234301259432939</v>
       </c>
       <c r="G23">
-        <v>0.0007623129156645208</v>
+        <v>0.002404454947170774</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2177640196956538</v>
+        <v>0.4272953495551199</v>
       </c>
       <c r="J23">
-        <v>0.7435144763980475</v>
+        <v>0.4141401048818238</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7062995807334431</v>
+        <v>0.9679363234536851</v>
       </c>
       <c r="O23">
-        <v>2.386190471120187</v>
+        <v>2.480636171849511</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.596520097904261</v>
+        <v>1.234140287051957</v>
       </c>
       <c r="C24">
-        <v>1.01905949705116</v>
+        <v>0.3204685911438503</v>
       </c>
       <c r="D24">
-        <v>0.4754625257333487</v>
+        <v>0.3636684142691138</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.146647778792399</v>
+        <v>1.210650388432398</v>
       </c>
       <c r="G24">
-        <v>0.0007695175686095776</v>
+        <v>0.002408787870184122</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2066561010439827</v>
+        <v>0.432954144864734</v>
       </c>
       <c r="J24">
-        <v>0.6358902229864043</v>
+        <v>0.3902572569538307</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7011371457649318</v>
+        <v>0.9700017991312961</v>
       </c>
       <c r="O24">
-        <v>2.106086006653243</v>
+        <v>2.450828100544925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.945092447922775</v>
+        <v>1.039362909727629</v>
       </c>
       <c r="C25">
-        <v>0.8355283629046255</v>
+        <v>0.2654176967645583</v>
       </c>
       <c r="D25">
-        <v>0.3961627174082878</v>
+        <v>0.3451345807787618</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9833119949829552</v>
+        <v>1.188140374210093</v>
       </c>
       <c r="G25">
-        <v>0.0007775552235311234</v>
+        <v>0.002413814538741788</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1986277991505112</v>
+        <v>0.4403201174725062</v>
       </c>
       <c r="J25">
-        <v>0.5239079332169894</v>
+        <v>0.3653045385717206</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6999990594322441</v>
+        <v>0.9737549109638337</v>
       </c>
       <c r="O25">
-        <v>1.828365769944384</v>
+        <v>2.42543128245191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8958579383065057</v>
+        <v>2.46815421532682</v>
       </c>
       <c r="C2">
-        <v>0.2247595374067828</v>
+        <v>0.7012317435239765</v>
       </c>
       <c r="D2">
-        <v>0.3319435897582679</v>
+        <v>0.3391105064461186</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.174130829997679</v>
+        <v>0.8706804464810745</v>
       </c>
       <c r="G2">
-        <v>0.002417822349252524</v>
+        <v>0.0007837261834169819</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4468222055563444</v>
+        <v>0.1956167617291307</v>
       </c>
       <c r="J2">
-        <v>0.3476189276469199</v>
+        <v>0.4442244345176931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9778347057375498</v>
+        <v>0.7025607017412341</v>
       </c>
       <c r="O2">
-        <v>2.412498572457594</v>
+        <v>1.641267596271263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7985604697435065</v>
+        <v>2.145914593461271</v>
       </c>
       <c r="C3">
-        <v>0.1971300892429326</v>
+        <v>0.6105133120437642</v>
       </c>
       <c r="D3">
-        <v>0.3232883474917969</v>
+        <v>0.3011191184970983</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.166228234281647</v>
+        <v>0.7983696842981232</v>
       </c>
       <c r="G3">
-        <v>0.00242073139868274</v>
+        <v>0.0007880769115295904</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4518980869209024</v>
+        <v>0.1951587581784864</v>
       </c>
       <c r="J3">
-        <v>0.3360577617490037</v>
+        <v>0.3916076514126274</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9814234588060984</v>
+        <v>0.7062314219506334</v>
       </c>
       <c r="O3">
-        <v>2.407310167648546</v>
+        <v>1.523685809569315</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7388045868442532</v>
+        <v>1.948337146331426</v>
       </c>
       <c r="C4">
-        <v>0.1801297771864654</v>
+        <v>0.5548909709067971</v>
       </c>
       <c r="D4">
-        <v>0.3181145741445448</v>
+        <v>0.2780764671149996</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.162158867636791</v>
+        <v>0.7557297146617685</v>
       </c>
       <c r="G4">
-        <v>0.002422613250547532</v>
+        <v>0.0007908347610536085</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4553437244751066</v>
+        <v>0.1955890134205234</v>
       </c>
       <c r="J4">
-        <v>0.329167463114203</v>
+        <v>0.3598814737273557</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9840343465379391</v>
+        <v>0.709383025030661</v>
       </c>
       <c r="O4">
-        <v>2.405881948729188</v>
+        <v>1.455541978953647</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7144512798417111</v>
+        <v>1.86786555924013</v>
       </c>
       <c r="C5">
-        <v>0.1731933604411608</v>
+        <v>0.5322354886414189</v>
       </c>
       <c r="D5">
-        <v>0.3160416689919856</v>
+        <v>0.2687513472192222</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.160697185313637</v>
+        <v>0.7387648843999557</v>
       </c>
       <c r="G5">
-        <v>0.00242340425413124</v>
+        <v>0.0007919808117249961</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4568304185298011</v>
+        <v>0.1959335453094084</v>
       </c>
       <c r="J5">
-        <v>0.3264119005761472</v>
+        <v>0.3470847423180743</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9852009196453864</v>
+        <v>0.7108851975126029</v>
       </c>
       <c r="O5">
-        <v>2.405741073243689</v>
+        <v>1.428722997554274</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.710407335169549</v>
+        <v>1.854505135682643</v>
       </c>
       <c r="C6">
-        <v>0.1720410609483451</v>
+        <v>0.5284739852137363</v>
       </c>
       <c r="D6">
-        <v>0.3156996086723893</v>
+        <v>0.2672066574578906</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.16046634235343</v>
+        <v>0.7359718535557391</v>
       </c>
       <c r="G6">
-        <v>0.002423537059486641</v>
+        <v>0.0007921724665879241</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4570822649938364</v>
+        <v>0.1960006994286303</v>
       </c>
       <c r="J6">
-        <v>0.3259574971127677</v>
+        <v>0.3449674276096033</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9854008312185911</v>
+        <v>0.7111475690172568</v>
       </c>
       <c r="O6">
-        <v>2.405744301159444</v>
+        <v>1.424325176837925</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7384761570394005</v>
+        <v>1.947251739781848</v>
       </c>
       <c r="C7">
-        <v>0.1800362648334328</v>
+        <v>0.55458539755071</v>
       </c>
       <c r="D7">
-        <v>0.3180864745549883</v>
+        <v>0.2779504506578121</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.162138359099188</v>
+        <v>0.7554992954666773</v>
       </c>
       <c r="G7">
-        <v>0.002422623820549365</v>
+        <v>0.0007908501266500525</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.455363440456523</v>
+        <v>0.1955929872795252</v>
       </c>
       <c r="J7">
-        <v>0.3291300890307269</v>
+        <v>0.3597083763198867</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9840496636299534</v>
+        <v>0.7094024117939242</v>
       </c>
       <c r="O7">
-        <v>2.405878263757614</v>
+        <v>1.455176529614675</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8623136804514502</v>
+        <v>2.35697098707476</v>
       </c>
       <c r="C8">
-        <v>0.2152405067602103</v>
+        <v>0.6699300748813357</v>
       </c>
       <c r="D8">
-        <v>0.3289301409490264</v>
+        <v>0.3259480315775392</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.171243382787537</v>
+        <v>0.8453633461697194</v>
       </c>
       <c r="G8">
-        <v>0.002418805574423825</v>
+        <v>0.0007852086471071497</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4485039794284411</v>
+        <v>0.195305177090944</v>
       </c>
       <c r="J8">
-        <v>0.3435893457580477</v>
+        <v>0.4259528809731279</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9789876592773723</v>
+        <v>0.703635147661295</v>
       </c>
       <c r="O8">
-        <v>2.410344355260435</v>
+        <v>1.599841883224968</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.104989903737021</v>
+        <v>3.164007283827004</v>
       </c>
       <c r="C9">
-        <v>0.2839813169477168</v>
+        <v>0.897189024309796</v>
       </c>
       <c r="D9">
-        <v>0.3513070242476886</v>
+        <v>0.4226448958635558</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.195323465710231</v>
+        <v>1.037042188825183</v>
       </c>
       <c r="G9">
-        <v>0.002412073867122722</v>
+        <v>0.0007748099656737889</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.43767087619036</v>
+        <v>0.200849841325013</v>
       </c>
       <c r="J9">
-        <v>0.373602642138934</v>
+        <v>0.5611510169341187</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9722865148499977</v>
+        <v>0.6998281913647304</v>
       </c>
       <c r="O9">
-        <v>2.433087569356871</v>
+        <v>1.918986319785944</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.283130306744283</v>
+        <v>3.761220962468997</v>
       </c>
       <c r="C10">
-        <v>0.3342954703116447</v>
+        <v>1.065486759999317</v>
       </c>
       <c r="D10">
-        <v>0.3684236380674122</v>
+        <v>0.4957392228041329</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.216832826748004</v>
+        <v>1.189530484411165</v>
       </c>
       <c r="G10">
-        <v>0.002407584185763126</v>
+        <v>0.0007675422887344352</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4313185726825637</v>
+        <v>0.2093348669452837</v>
       </c>
       <c r="J10">
-        <v>0.3966755800465904</v>
+        <v>0.6647401543587961</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9693213624961885</v>
+        <v>0.7021691257755975</v>
       </c>
       <c r="O10">
-        <v>2.458385010120224</v>
+        <v>2.180009781428822</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.36412791747756</v>
+        <v>4.034353599852579</v>
       </c>
       <c r="C11">
-        <v>0.3571416509150254</v>
+        <v>1.142505878961288</v>
       </c>
       <c r="D11">
-        <v>0.3763570209600857</v>
+        <v>0.5295541878245729</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.227452118134494</v>
+        <v>1.261974477036816</v>
       </c>
       <c r="G11">
-        <v>0.002405639754356148</v>
+        <v>0.0007643090660233969</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4287799373963388</v>
+        <v>0.2143176934590443</v>
       </c>
       <c r="J11">
-        <v>0.4073965349386697</v>
+        <v>0.7130415146065729</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9683960948349721</v>
+        <v>0.704485212505034</v>
       </c>
       <c r="O11">
-        <v>2.47177208133823</v>
+        <v>2.305710686006734</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.39479274039553</v>
+        <v>4.138037131939598</v>
       </c>
       <c r="C12">
-        <v>0.3657866028133299</v>
+        <v>1.171752149005783</v>
       </c>
       <c r="D12">
-        <v>0.3793822498334976</v>
+        <v>0.5424506714005588</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.231593716365438</v>
+        <v>1.289898462371781</v>
       </c>
       <c r="G12">
-        <v>0.002404917457782128</v>
+        <v>0.0007630945175243523</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.427869293296137</v>
+        <v>0.2163809854340428</v>
       </c>
       <c r="J12">
-        <v>0.4114887751559735</v>
+        <v>0.731524197632254</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.968106501462529</v>
+        <v>0.7055544181803128</v>
       </c>
       <c r="O12">
-        <v>2.477112633217587</v>
+        <v>2.354419011509776</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.388188867690701</v>
+        <v>4.115694973126381</v>
       </c>
       <c r="C13">
-        <v>0.3639250482097509</v>
+        <v>1.165449598827252</v>
       </c>
       <c r="D13">
-        <v>0.3787297790239847</v>
+        <v>0.5396689388678055</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.230696393918379</v>
+        <v>1.283861876576012</v>
       </c>
       <c r="G13">
-        <v>0.002405072395041125</v>
+        <v>0.0007633556676800461</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4280631595147781</v>
+        <v>0.2159285227345968</v>
       </c>
       <c r="J13">
-        <v>0.4106059933379385</v>
+        <v>0.7275347006245454</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9681661690905088</v>
+        <v>0.705315394886</v>
       </c>
       <c r="O13">
-        <v>2.475950374984535</v>
+        <v>2.343877715576184</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.366650884393721</v>
+        <v>4.042878343759867</v>
       </c>
       <c r="C14">
-        <v>0.357853006674361</v>
+        <v>1.144910278667055</v>
       </c>
       <c r="D14">
-        <v>0.3766054874928955</v>
+        <v>0.5306132930045351</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.227790437187267</v>
+        <v>1.264261666405162</v>
       </c>
       <c r="G14">
-        <v>0.002405580050034653</v>
+        <v>0.0007642089520624708</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4287040012694519</v>
+        <v>0.2144838166634031</v>
       </c>
       <c r="J14">
-        <v>0.407732555148911</v>
+        <v>0.714558111509831</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9683710522911468</v>
+        <v>0.7045692523070528</v>
       </c>
       <c r="O14">
-        <v>2.472206011946128</v>
+        <v>2.309695095048227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.353457262123072</v>
+        <v>3.998310541772071</v>
       </c>
       <c r="C15">
-        <v>0.354132861539199</v>
+        <v>1.13234033463857</v>
       </c>
       <c r="D15">
-        <v>0.3753070331537742</v>
+        <v>0.5250786866564283</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.226026130463623</v>
+        <v>1.252321428940164</v>
       </c>
       <c r="G15">
-        <v>0.002405892826963068</v>
+        <v>0.000764732868959291</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4291031415777624</v>
+        <v>0.2136223283884746</v>
       </c>
       <c r="J15">
-        <v>0.4059767198024247</v>
+        <v>0.7066352850178532</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9685044615502107</v>
+        <v>0.7041376212506236</v>
       </c>
       <c r="O15">
-        <v>2.469947822234587</v>
+        <v>2.288904896472474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.277835997430202</v>
+        <v>3.743404147250544</v>
       </c>
       <c r="C16">
-        <v>0.3328015427737512</v>
+        <v>1.060463854763952</v>
       </c>
       <c r="D16">
-        <v>0.3679081210939898</v>
+        <v>0.4935415524011546</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.216155649838655</v>
+        <v>1.184862071007288</v>
       </c>
       <c r="G16">
-        <v>0.002407713224163016</v>
+        <v>0.0007677549971431936</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.431491559782792</v>
+        <v>0.2090330736963217</v>
       </c>
       <c r="J16">
-        <v>0.3959794756007966</v>
+        <v>0.6616091409620992</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9693903437363929</v>
+        <v>0.7020439664585325</v>
       </c>
       <c r="O16">
-        <v>2.457548027018561</v>
+        <v>2.17194395913603</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.231433613381398</v>
+        <v>3.587431056380467</v>
       </c>
       <c r="C17">
-        <v>0.3197044579949022</v>
+        <v>1.016497727463928</v>
       </c>
       <c r="D17">
-        <v>0.3634066926782964</v>
+        <v>0.4743461125615909</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.210314392236171</v>
+        <v>1.144299239394712</v>
       </c>
       <c r="G17">
-        <v>0.002408855017714254</v>
+        <v>0.0007696271750899375</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4330468340654932</v>
+        <v>0.2065155885030947</v>
       </c>
       <c r="J17">
-        <v>0.3899041776225545</v>
+        <v>0.6343042783917667</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9700422043823949</v>
+        <v>0.7010884591460069</v>
       </c>
       <c r="O17">
-        <v>2.450423116093674</v>
+        <v>2.102048481872714</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.204740578015958</v>
+        <v>3.497853719039142</v>
       </c>
       <c r="C18">
-        <v>0.3121674315626137</v>
+        <v>0.9912518787961346</v>
       </c>
       <c r="D18">
-        <v>0.3608314277825855</v>
+        <v>0.4633578165093297</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.207033192039489</v>
+        <v>1.121254989447166</v>
       </c>
       <c r="G18">
-        <v>0.002409520970268854</v>
+        <v>0.0007707109055966297</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4339744181033751</v>
+        <v>0.2051723351442547</v>
       </c>
       <c r="J18">
-        <v>0.3864309953096949</v>
+        <v>0.618708672438629</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9704570153686944</v>
+        <v>0.7006558592544394</v>
       </c>
       <c r="O18">
-        <v>2.446501872926746</v>
+        <v>2.062494646399358</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.19570220212546</v>
+        <v>3.46754613500525</v>
       </c>
       <c r="C19">
-        <v>0.3096148601057678</v>
+        <v>0.9827109079327556</v>
       </c>
       <c r="D19">
-        <v>0.3599618670883444</v>
+        <v>0.4596460678824599</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.205935713887143</v>
+        <v>1.113500376395478</v>
       </c>
       <c r="G19">
-        <v>0.00240974803645635</v>
+        <v>0.0007710790435623529</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4342941492036232</v>
+        <v>0.2047350852619907</v>
       </c>
       <c r="J19">
-        <v>0.3852586681516499</v>
+        <v>0.6134464058217333</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9706043162922384</v>
+        <v>0.7005291220367411</v>
       </c>
       <c r="O19">
-        <v>2.445204547230617</v>
+        <v>2.049210596104842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.236373611424881</v>
+        <v>3.604020452188195</v>
       </c>
       <c r="C20">
-        <v>0.3210990743784237</v>
+        <v>1.021173516158427</v>
       </c>
       <c r="D20">
-        <v>0.3638844460114967</v>
+        <v>0.4763840028586515</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.210928073709468</v>
+        <v>1.148587239061229</v>
       </c>
       <c r="G20">
-        <v>0.002408732517649161</v>
+        <v>0.0007694271688856765</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.432877852385861</v>
+        <v>0.2067726347155805</v>
       </c>
       <c r="J20">
-        <v>0.3905487119038327</v>
+        <v>0.6371994447084148</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9699686864184685</v>
+        <v>0.7011779815127568</v>
       </c>
       <c r="O20">
-        <v>2.451163268291282</v>
+        <v>2.109421139476893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.372977320344035</v>
+        <v>4.064259080825252</v>
       </c>
       <c r="C21">
-        <v>0.3596366890755007</v>
+        <v>1.15094085789417</v>
       </c>
       <c r="D21">
-        <v>0.377228873503185</v>
+        <v>0.5332705854610822</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.228640719801049</v>
+        <v>1.270004989478792</v>
       </c>
       <c r="G21">
-        <v>0.002405430559557887</v>
+        <v>0.0007639580613489441</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.428514393422418</v>
+        <v>0.2149032495282235</v>
       </c>
       <c r="J21">
-        <v>0.4085756722045915</v>
+        <v>0.7183642494069318</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9683092244138294</v>
+        <v>0.70478309541339</v>
       </c>
       <c r="O21">
-        <v>2.4732984554729</v>
+        <v>2.319704386553781</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.462212971771066</v>
+        <v>4.366556501369075</v>
       </c>
       <c r="C22">
-        <v>0.3847857708007041</v>
+        <v>1.236230131844991</v>
       </c>
       <c r="D22">
-        <v>0.3860727538397839</v>
+        <v>0.570988009481141</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.240918311918833</v>
+        <v>1.352246077499984</v>
       </c>
       <c r="G22">
-        <v>0.002403354213214722</v>
+        <v>0.0007604404686084134</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4259581270551109</v>
+        <v>0.2212530841574711</v>
       </c>
       <c r="J22">
-        <v>0.4205465061179865</v>
+        <v>0.7725412482947007</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9675789190679609</v>
+        <v>0.7082656137343406</v>
       </c>
       <c r="O22">
-        <v>2.489346036005969</v>
+        <v>2.463651893330308</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.414590651192782</v>
+        <v>4.205061198356304</v>
       </c>
       <c r="C23">
-        <v>0.3713667817498276</v>
+        <v>1.190660603602055</v>
       </c>
       <c r="D23">
-        <v>0.3813414310696999</v>
+        <v>0.5508045447946017</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.234301259432939</v>
+        <v>1.308071105305785</v>
       </c>
       <c r="G23">
-        <v>0.002404454947170774</v>
+        <v>0.0007623129157238395</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4272953495551199</v>
+        <v>0.2177640196956432</v>
       </c>
       <c r="J23">
-        <v>0.4141401048818238</v>
+        <v>0.7435144763979906</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9679363234536851</v>
+        <v>0.7062995807333579</v>
       </c>
       <c r="O23">
-        <v>2.480636171849511</v>
+        <v>2.386190471120244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.234140287051957</v>
+        <v>3.596520097904261</v>
       </c>
       <c r="C24">
-        <v>0.3204685911438503</v>
+        <v>1.019059497051018</v>
       </c>
       <c r="D24">
-        <v>0.3636684142691138</v>
+        <v>0.4754625257334339</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.210650388432398</v>
+        <v>1.146647778792399</v>
       </c>
       <c r="G24">
-        <v>0.002408787870184122</v>
+        <v>0.0007695175685803466</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.432954144864734</v>
+        <v>0.2066561010439862</v>
       </c>
       <c r="J24">
-        <v>0.3902572569538307</v>
+        <v>0.6358902229862196</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9700017991312961</v>
+        <v>0.7011371457649176</v>
       </c>
       <c r="O24">
-        <v>2.450828100544925</v>
+        <v>2.106086006653186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.039362909727629</v>
+        <v>2.945092447922775</v>
       </c>
       <c r="C25">
-        <v>0.2654176967645583</v>
+        <v>0.8355283629046255</v>
       </c>
       <c r="D25">
-        <v>0.3451345807787618</v>
+        <v>0.3961627174084299</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.188140374210093</v>
+        <v>0.9833119949829694</v>
       </c>
       <c r="G25">
-        <v>0.002413814538741788</v>
+        <v>0.0007775552235023686</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4403201174725062</v>
+        <v>0.1986277991505112</v>
       </c>
       <c r="J25">
-        <v>0.3653045385717206</v>
+        <v>0.5239079332169609</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9737549109638337</v>
+        <v>0.6999990594322369</v>
       </c>
       <c r="O25">
-        <v>2.42543128245191</v>
+        <v>1.828365769944384</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.46815421532682</v>
+        <v>0.5510584477374323</v>
       </c>
       <c r="C2">
-        <v>0.7012317435239765</v>
+        <v>0.1325085579386354</v>
       </c>
       <c r="D2">
-        <v>0.3391105064461186</v>
+        <v>0.08119774543656177</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8706804464810745</v>
+        <v>0.3435573177167726</v>
       </c>
       <c r="G2">
-        <v>0.0007837261834169819</v>
+        <v>0.2404316323115054</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0006949806383245161</v>
       </c>
       <c r="I2">
-        <v>0.1956167617291307</v>
+        <v>0.001549113182474304</v>
       </c>
       <c r="J2">
-        <v>0.4442244345176931</v>
+        <v>0.2336483925265682</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2303011062778282</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6100958802548178</v>
       </c>
       <c r="N2">
-        <v>0.7025607017412341</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.641267596271263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.547235849257618</v>
+      </c>
+      <c r="P2">
+        <v>0.7154842271148882</v>
+      </c>
+      <c r="Q2">
+        <v>0.9477922465865021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145914593461271</v>
+        <v>0.4819652155597964</v>
       </c>
       <c r="C3">
-        <v>0.6105133120437642</v>
+        <v>0.1231211422632512</v>
       </c>
       <c r="D3">
-        <v>0.3011191184970983</v>
+        <v>0.07169893698168295</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7983696842981232</v>
+        <v>0.3251978612688191</v>
       </c>
       <c r="G3">
-        <v>0.0007880769115295904</v>
+        <v>0.2304571747137771</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001236338031214146</v>
       </c>
       <c r="I3">
-        <v>0.1951587581784864</v>
+        <v>0.0009775967032625843</v>
       </c>
       <c r="J3">
-        <v>0.3916076514126274</v>
+        <v>0.2325162775842244</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2301087178260808</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5390454803699924</v>
       </c>
       <c r="N3">
-        <v>0.7062314219506334</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.523685809569315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.21572518922369</v>
+      </c>
+      <c r="P3">
+        <v>0.7394322829530324</v>
+      </c>
+      <c r="Q3">
+        <v>0.9240386404509877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948337146331426</v>
+        <v>0.4391849040015359</v>
       </c>
       <c r="C4">
-        <v>0.5548909709067971</v>
+        <v>0.1173950988083377</v>
       </c>
       <c r="D4">
-        <v>0.2780764671149996</v>
+        <v>0.06586616679082624</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7557297146617685</v>
+        <v>0.3142484948317943</v>
       </c>
       <c r="G4">
-        <v>0.0007908347610536085</v>
+        <v>0.2245763876439355</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.171488441504721E-06</v>
       </c>
       <c r="I4">
-        <v>0.1955890134205234</v>
+        <v>0.000734467764533786</v>
       </c>
       <c r="J4">
-        <v>0.3598814737273557</v>
+        <v>0.2320038011279166</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2301385880123021</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.495228847555083</v>
       </c>
       <c r="N4">
-        <v>0.709383025030661</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.455541978953647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.012721327882062</v>
+      </c>
+      <c r="P4">
+        <v>0.754550548939382</v>
+      </c>
+      <c r="Q4">
+        <v>0.9103462722045066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86786555924013</v>
+        <v>0.4211787228162081</v>
       </c>
       <c r="C5">
-        <v>0.5322354886414189</v>
+        <v>0.115280927209092</v>
       </c>
       <c r="D5">
-        <v>0.2687513472192222</v>
+        <v>0.06353816756438135</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7387648843999557</v>
+        <v>0.3096053946517259</v>
       </c>
       <c r="G5">
-        <v>0.0007919808117249961</v>
+        <v>0.2219947391247885</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.421517926291642E-06</v>
       </c>
       <c r="I5">
-        <v>0.1959335453094084</v>
+        <v>0.0007228076709702158</v>
       </c>
       <c r="J5">
-        <v>0.3470847423180743</v>
+        <v>0.2317130175645019</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.229960915364174</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4773474054883025</v>
       </c>
       <c r="N5">
-        <v>0.7108851975126029</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.428722997554274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.930086398284203</v>
+      </c>
+      <c r="P5">
+        <v>0.7607443345806923</v>
+      </c>
+      <c r="Q5">
+        <v>0.9042004771065422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854505135682643</v>
+        <v>0.417590854550923</v>
       </c>
       <c r="C6">
-        <v>0.5284739852137363</v>
+        <v>0.1151901211333666</v>
       </c>
       <c r="D6">
-        <v>0.2672066574578906</v>
+        <v>0.06321224596596409</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7359718535557391</v>
+        <v>0.3085227782874256</v>
       </c>
       <c r="G6">
-        <v>0.0007921724665879241</v>
+        <v>0.2212721306534178</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.029439223687589E-05</v>
       </c>
       <c r="I6">
-        <v>0.1960006994286303</v>
+        <v>0.0008052571448171619</v>
       </c>
       <c r="J6">
-        <v>0.3449674276096033</v>
+        <v>0.2315126804192857</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2296578117884884</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4744039243690565</v>
       </c>
       <c r="N6">
-        <v>0.7111475690172568</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.424325176837925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.91635902819408</v>
+      </c>
+      <c r="P6">
+        <v>0.7616966278527557</v>
+      </c>
+      <c r="Q6">
+        <v>0.9022380432040364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947251739781848</v>
+        <v>0.4373180613534799</v>
       </c>
       <c r="C7">
-        <v>0.55458539755071</v>
+        <v>0.1180776410799638</v>
       </c>
       <c r="D7">
-        <v>0.2779504506578121</v>
+        <v>0.06600102101469218</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7554992954666773</v>
+        <v>0.3133216184785681</v>
       </c>
       <c r="G7">
-        <v>0.0007908501266500525</v>
+        <v>0.2237289752358222</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.982021540669621E-06</v>
       </c>
       <c r="I7">
-        <v>0.1955929872795252</v>
+        <v>0.0009461010117304269</v>
       </c>
       <c r="J7">
-        <v>0.3597083763198867</v>
+        <v>0.231577703757111</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2293833481508756</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4950667660081365</v>
       </c>
       <c r="N7">
-        <v>0.7094024117939242</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.455176529614675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.011576406360973</v>
+      </c>
+      <c r="P7">
+        <v>0.7544178597459403</v>
+      </c>
+      <c r="Q7">
+        <v>0.9076558668172225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.35697098707476</v>
+        <v>0.5251391120083326</v>
       </c>
       <c r="C8">
-        <v>0.6699300748813357</v>
+        <v>0.1302152484688719</v>
       </c>
       <c r="D8">
-        <v>0.3259480315775392</v>
+        <v>0.07814450429864195</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8453633461697194</v>
+        <v>0.3360134883344301</v>
       </c>
       <c r="G8">
-        <v>0.0007852086471071497</v>
+        <v>0.2358651118895239</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.000447322175155751</v>
       </c>
       <c r="I8">
-        <v>0.195305177090944</v>
+        <v>0.001583722777003693</v>
       </c>
       <c r="J8">
-        <v>0.4259528809731279</v>
+        <v>0.2326636458019919</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2292111973297644</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5857427895617064</v>
       </c>
       <c r="N8">
-        <v>0.703635147661295</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.599841883224968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.432752726103573</v>
+      </c>
+      <c r="P8">
+        <v>0.7234075616547031</v>
+      </c>
+      <c r="Q8">
+        <v>0.9359678798797972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.164007283827004</v>
+        <v>0.697422666423563</v>
       </c>
       <c r="C9">
-        <v>0.897189024309796</v>
+        <v>0.1530985701260192</v>
       </c>
       <c r="D9">
-        <v>0.4226448958635558</v>
+        <v>0.10167791308902</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.037042188825183</v>
+        <v>0.3848143615956587</v>
       </c>
       <c r="G9">
-        <v>0.0007748099656737889</v>
+        <v>0.2632038646700323</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003327628510171099</v>
       </c>
       <c r="I9">
-        <v>0.200849841325013</v>
+        <v>0.003436194351574606</v>
       </c>
       <c r="J9">
-        <v>0.5611510169341187</v>
+        <v>0.2370565469728092</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2314497235605835</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7619592439885565</v>
       </c>
       <c r="N9">
-        <v>0.6998281913647304</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.918986319785944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.264874196061626</v>
+      </c>
+      <c r="P9">
+        <v>0.6663388964797314</v>
+      </c>
+      <c r="Q9">
+        <v>1.003682430762041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.761220962468997</v>
+        <v>0.8309982152767361</v>
       </c>
       <c r="C10">
-        <v>1.065486759999317</v>
+        <v>0.1720766866612138</v>
       </c>
       <c r="D10">
-        <v>0.4957392228041329</v>
+        <v>0.1198487091884175</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.189530484411165</v>
+        <v>0.4185827990927535</v>
       </c>
       <c r="G10">
-        <v>0.0007675422887344352</v>
+        <v>0.281011465294192</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00642766264544381</v>
       </c>
       <c r="I10">
-        <v>0.2093348669452837</v>
+        <v>0.005519357780623402</v>
       </c>
       <c r="J10">
-        <v>0.6647401543587961</v>
+        <v>0.239407574113514</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2311299986444055</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9013486086164448</v>
       </c>
       <c r="N10">
-        <v>0.7021691257755975</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.180009781428822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.679756921485449</v>
+      </c>
+      <c r="P10">
+        <v>0.6271191021317399</v>
+      </c>
+      <c r="Q10">
+        <v>1.046733778454168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034353599852579</v>
+        <v>0.9757110171247234</v>
       </c>
       <c r="C11">
-        <v>1.142505878961288</v>
+        <v>0.1956448983809906</v>
       </c>
       <c r="D11">
-        <v>0.5295541878245729</v>
+        <v>0.1350904844433956</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.261974477036816</v>
+        <v>0.4018566236865908</v>
       </c>
       <c r="G11">
-        <v>0.0007643090660233969</v>
+        <v>0.2594286873998612</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02190663693027162</v>
       </c>
       <c r="I11">
-        <v>0.2143176934590443</v>
+        <v>0.006587183137316543</v>
       </c>
       <c r="J11">
-        <v>0.7130415146065729</v>
+        <v>0.225536838797268</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2095159817546701</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.061498555980933</v>
       </c>
       <c r="N11">
-        <v>0.704485212505034</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.305710686006734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.319622630655374</v>
+      </c>
+      <c r="P11">
+        <v>0.6216567569922269</v>
+      </c>
+      <c r="Q11">
+        <v>0.9720749224997718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.138037131939598</v>
+        <v>1.07734323675902</v>
       </c>
       <c r="C12">
-        <v>1.171752149005783</v>
+        <v>0.2112013275609002</v>
       </c>
       <c r="D12">
-        <v>0.5424506714005588</v>
+        <v>0.1440726010039839</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.289898462371781</v>
+        <v>0.3819279718559798</v>
       </c>
       <c r="G12">
-        <v>0.0007630945175243523</v>
+        <v>0.2391309229519933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05891683799431746</v>
       </c>
       <c r="I12">
-        <v>0.2163809854340428</v>
+        <v>0.006724714204269233</v>
       </c>
       <c r="J12">
-        <v>0.731524197632254</v>
+        <v>0.2139578592866584</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1930985447446929</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.172589585572865</v>
       </c>
       <c r="N12">
-        <v>0.7055544181803128</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.354419011509776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.36239260198748</v>
+      </c>
+      <c r="P12">
+        <v>0.6344862203127484</v>
+      </c>
+      <c r="Q12">
+        <v>0.9048495134877896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.115694973126381</v>
+        <v>1.147968889760506</v>
       </c>
       <c r="C13">
-        <v>1.165449598827252</v>
+        <v>0.2224138631251549</v>
       </c>
       <c r="D13">
-        <v>0.5396689388678055</v>
+        <v>0.1489207863337185</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.283861876576012</v>
+        <v>0.3569150007650848</v>
       </c>
       <c r="G13">
-        <v>0.0007633556676800461</v>
+        <v>0.2172848437549533</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1137070224952765</v>
       </c>
       <c r="I13">
-        <v>0.2159285227345968</v>
+        <v>0.006457515284449045</v>
       </c>
       <c r="J13">
-        <v>0.7275347006245454</v>
+        <v>0.2027424819958341</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1784633464148939</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.251160107637077</v>
       </c>
       <c r="N13">
-        <v>0.705315394886</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.343877715576184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6521700509013328</v>
+      </c>
+      <c r="P13">
+        <v>0.6604927244751266</v>
+      </c>
+      <c r="Q13">
+        <v>0.8350364061540461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.042878343759867</v>
+        <v>1.182719848130063</v>
       </c>
       <c r="C14">
-        <v>1.144910278667055</v>
+        <v>0.2285821808446826</v>
       </c>
       <c r="D14">
-        <v>0.5306132930045351</v>
+        <v>0.150480927469502</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.264261666405162</v>
+        <v>0.3369992484691551</v>
       </c>
       <c r="G14">
-        <v>0.0007642089520624708</v>
+        <v>0.2012405815530087</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626811058778372</v>
       </c>
       <c r="I14">
-        <v>0.2144838166634031</v>
+        <v>0.00617235534266225</v>
       </c>
       <c r="J14">
-        <v>0.714558111509831</v>
+        <v>0.1949915957444475</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1689708284710729</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.291394011027961</v>
       </c>
       <c r="N14">
-        <v>0.7045692523070528</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.309695095048227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3007662828829325</v>
+      </c>
+      <c r="P14">
+        <v>0.6852964869436846</v>
+      </c>
+      <c r="Q14">
+        <v>0.7847522607689825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.998310541772071</v>
+        <v>1.182922371501746</v>
       </c>
       <c r="C15">
-        <v>1.13234033463857</v>
+        <v>0.2294225111909896</v>
       </c>
       <c r="D15">
-        <v>0.5250786866564283</v>
+        <v>0.1500144138799868</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.252321428940164</v>
+        <v>0.3307866328137976</v>
       </c>
       <c r="G15">
-        <v>0.000764732868959291</v>
+        <v>0.1967044962328046</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751049191623792</v>
       </c>
       <c r="I15">
-        <v>0.2136223283884746</v>
+        <v>0.0061114481599569</v>
       </c>
       <c r="J15">
-        <v>0.7066352850178532</v>
+        <v>0.1930521509193355</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1667586261669491</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.293382266683807</v>
       </c>
       <c r="N15">
-        <v>0.7041376212506236</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.288904896472474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2332278799634899</v>
+      </c>
+      <c r="P15">
+        <v>0.6930549103620507</v>
+      </c>
+      <c r="Q15">
+        <v>0.7710489317786795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.743404147250544</v>
+        <v>1.107139383095046</v>
       </c>
       <c r="C16">
-        <v>1.060463854763952</v>
+        <v>0.2189196796895772</v>
       </c>
       <c r="D16">
-        <v>0.4935415524011546</v>
+        <v>0.1410717684824476</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.184862071007288</v>
+        <v>0.320782652222519</v>
       </c>
       <c r="G16">
-        <v>0.0007677549971431936</v>
+        <v>0.1930040836829079</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621032606409898</v>
       </c>
       <c r="I16">
-        <v>0.2090330736963217</v>
+        <v>0.005354908010509973</v>
       </c>
       <c r="J16">
-        <v>0.6616091409620992</v>
+        <v>0.193932292328725</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1693333410417992</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.214153997762565</v>
       </c>
       <c r="N16">
-        <v>0.7020439664585325</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.17194395913603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2284440093550373</v>
+      </c>
+      <c r="P16">
+        <v>0.7012323296251353</v>
+      </c>
+      <c r="Q16">
+        <v>0.7648905118720961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.587431056380467</v>
+        <v>1.0306964497438</v>
       </c>
       <c r="C17">
-        <v>1.016497727463928</v>
+        <v>0.2076450488750226</v>
       </c>
       <c r="D17">
-        <v>0.4743461125615909</v>
+        <v>0.1334253082616499</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.144299239394712</v>
+        <v>0.3237282637424244</v>
       </c>
       <c r="G17">
-        <v>0.0007696271750899375</v>
+        <v>0.1986755122912669</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242065838992374</v>
       </c>
       <c r="I17">
-        <v>0.2065155885030947</v>
+        <v>0.004958745573933498</v>
       </c>
       <c r="J17">
-        <v>0.6343042783917667</v>
+        <v>0.1987645996585243</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1763269877630211</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.132250798722708</v>
       </c>
       <c r="N17">
-        <v>0.7010884591460069</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.102048481872714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3848146606336869</v>
+      </c>
+      <c r="P17">
+        <v>0.6943519879272699</v>
+      </c>
+      <c r="Q17">
+        <v>0.7869328279828665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.497853719039142</v>
+        <v>0.9484480907110537</v>
       </c>
       <c r="C18">
-        <v>0.9912518787961346</v>
+        <v>0.1939409352186203</v>
       </c>
       <c r="D18">
-        <v>0.4633578165093297</v>
+        <v>0.1259271178122674</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.121254989447166</v>
+        <v>0.3388095488636438</v>
       </c>
       <c r="G18">
-        <v>0.0007707109055966297</v>
+        <v>0.2138537619724588</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07147981594471986</v>
       </c>
       <c r="I18">
-        <v>0.2051723351442547</v>
+        <v>0.004572406414316887</v>
       </c>
       <c r="J18">
-        <v>0.618708672438629</v>
+        <v>0.207855339516037</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.188708536702908</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.040634909117131</v>
       </c>
       <c r="N18">
-        <v>0.7006558592544394</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.062494646399358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8231701161627427</v>
+      </c>
+      <c r="P18">
+        <v>0.6772709289082961</v>
+      </c>
+      <c r="Q18">
+        <v>0.838090084071041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.46754613500525</v>
+        <v>0.8661515743924895</v>
       </c>
       <c r="C19">
-        <v>0.9827109079327556</v>
+        <v>0.1815120979167517</v>
       </c>
       <c r="D19">
-        <v>0.4596460678824599</v>
+        <v>0.1195277562907933</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.113500376395478</v>
+        <v>0.3613273439021114</v>
       </c>
       <c r="G19">
-        <v>0.0007710790435623529</v>
+        <v>0.2347866036541149</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02701782045826207</v>
       </c>
       <c r="I19">
-        <v>0.2047350852619907</v>
+        <v>0.004743716948548915</v>
       </c>
       <c r="J19">
-        <v>0.6134464058217333</v>
+        <v>0.2191337124897998</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2039945704377857</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9505882638023309</v>
       </c>
       <c r="N19">
-        <v>0.7005291220367411</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.049210596104842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.654031384695188</v>
+      </c>
+      <c r="P19">
+        <v>0.6596941195391217</v>
+      </c>
+      <c r="Q19">
+        <v>0.9060724721349942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.604020452188195</v>
+        <v>0.7911873539808028</v>
       </c>
       <c r="C20">
-        <v>1.021173516158427</v>
+        <v>0.1694687058596003</v>
       </c>
       <c r="D20">
-        <v>0.4763840028586515</v>
+        <v>0.115638206724995</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.148587239061229</v>
+        <v>0.4067366769362266</v>
       </c>
       <c r="G20">
-        <v>0.0007694271688856765</v>
+        <v>0.2735719653136144</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005483488312628459</v>
       </c>
       <c r="I20">
-        <v>0.2067726347155805</v>
+        <v>0.005611441891560709</v>
       </c>
       <c r="J20">
-        <v>0.6371994447084148</v>
+        <v>0.2373576666341677</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2287591212240123</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8654624080745066</v>
       </c>
       <c r="N20">
-        <v>0.7011779815127568</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.109421139476893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.562036037595234</v>
+      </c>
+      <c r="P20">
+        <v>0.6369078469679774</v>
+      </c>
+      <c r="Q20">
+        <v>1.026571454679129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.064259080825252</v>
+        <v>0.8793572056729317</v>
       </c>
       <c r="C21">
-        <v>1.15094085789417</v>
+        <v>0.1814055492354925</v>
       </c>
       <c r="D21">
-        <v>0.5332705854610822</v>
+        <v>0.1283416103091781</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.270004989478792</v>
+        <v>0.4395115174598345</v>
       </c>
       <c r="G21">
-        <v>0.0007639580613489441</v>
+        <v>0.2935318847877681</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00919730895318871</v>
       </c>
       <c r="I21">
-        <v>0.2149032495282235</v>
+        <v>0.007375950863920622</v>
       </c>
       <c r="J21">
-        <v>0.7183642494069318</v>
+        <v>0.2424016100390816</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2330786344973745</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9556928503577353</v>
       </c>
       <c r="N21">
-        <v>0.70478309541339</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.319704386553781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.196692300130522</v>
+      </c>
+      <c r="P21">
+        <v>0.6070005064143329</v>
+      </c>
+      <c r="Q21">
+        <v>1.079733813662585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.366556501369075</v>
+        <v>0.9436759901578569</v>
       </c>
       <c r="C22">
-        <v>1.236230131844991</v>
+        <v>0.189081025642281</v>
       </c>
       <c r="D22">
-        <v>0.570988009481141</v>
+        <v>0.1368210032827051</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.352246077499984</v>
+        <v>0.4606612659781035</v>
       </c>
       <c r="G22">
-        <v>0.0007604404686084134</v>
+        <v>0.3062584322248227</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0117355776275152</v>
       </c>
       <c r="I22">
-        <v>0.2212530841574711</v>
+        <v>0.008380032627322009</v>
       </c>
       <c r="J22">
-        <v>0.7725412482947007</v>
+        <v>0.2455907900276557</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2358014658796712</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.019857579854687</v>
       </c>
       <c r="N22">
-        <v>0.7082656137343406</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.463651893330308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.510507051122758</v>
+      </c>
+      <c r="P22">
+        <v>0.5883079670859495</v>
+      </c>
+      <c r="Q22">
+        <v>1.113571959716381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.205061198356304</v>
+        <v>0.9113552073048368</v>
       </c>
       <c r="C23">
-        <v>1.190660603602055</v>
+        <v>0.1840879029591349</v>
       </c>
       <c r="D23">
-        <v>0.5508045447946017</v>
+        <v>0.1320900303779666</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.308071105305785</v>
+        <v>0.4503487288667287</v>
       </c>
       <c r="G23">
-        <v>0.0007623129157238395</v>
+        <v>0.3003859458308682</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01034815390994902</v>
       </c>
       <c r="I23">
-        <v>0.2177640196956432</v>
+        <v>0.007565120678273196</v>
       </c>
       <c r="J23">
-        <v>0.7435144763979906</v>
+        <v>0.2443553053630936</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2351987829196531</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.9855235075474695</v>
       </c>
       <c r="N23">
-        <v>0.7062995807333579</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.386190471120244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.34285508992798</v>
+      </c>
+      <c r="P23">
+        <v>0.5983579302189765</v>
+      </c>
+      <c r="Q23">
+        <v>1.098440039700193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.596520097904261</v>
+        <v>0.7852035627979035</v>
       </c>
       <c r="C24">
-        <v>1.019059497051018</v>
+        <v>0.1667426622038448</v>
       </c>
       <c r="D24">
-        <v>0.4754625257334339</v>
+        <v>0.1145298346713162</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.146647778792399</v>
+        <v>0.4106247963933711</v>
       </c>
       <c r="G24">
-        <v>0.0007695175685803466</v>
+        <v>0.2773760324068917</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005823311831278932</v>
       </c>
       <c r="I24">
-        <v>0.2066561010439862</v>
+        <v>0.005186888246242027</v>
       </c>
       <c r="J24">
-        <v>0.6358902229862196</v>
+        <v>0.2393617905086387</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2319489733628188</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8554335017467167</v>
       </c>
       <c r="N24">
-        <v>0.7011371457649176</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.106086006653186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.712079556098445</v>
+      </c>
+      <c r="P24">
+        <v>0.6372295474833423</v>
+      </c>
+      <c r="Q24">
+        <v>1.038831383891747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.945092447922775</v>
+        <v>0.6481333628555603</v>
       </c>
       <c r="C25">
-        <v>0.8355283629046255</v>
+        <v>0.1481858251731438</v>
       </c>
       <c r="D25">
-        <v>0.3961627174084299</v>
+        <v>0.09561273689145366</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9833119949829694</v>
+        <v>0.3697271799353743</v>
       </c>
       <c r="G25">
-        <v>0.0007775552235023686</v>
+        <v>0.2540963693941904</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002304739978636228</v>
       </c>
       <c r="I25">
-        <v>0.1986277991505112</v>
+        <v>0.003198214903431307</v>
       </c>
       <c r="J25">
-        <v>0.5239079332169609</v>
+        <v>0.234942930325623</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2293580251408684</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7145802083013706</v>
       </c>
       <c r="N25">
-        <v>0.6999990594322369</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.828365769944384</v>
+        <v>3.038773964986675</v>
+      </c>
+      <c r="P25">
+        <v>0.6811227727337679</v>
+      </c>
+      <c r="Q25">
+        <v>0.9798022209387938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5510584477374323</v>
+        <v>0.530762952707903</v>
       </c>
       <c r="C2">
-        <v>0.1325085579386354</v>
+        <v>0.1348886810404935</v>
       </c>
       <c r="D2">
-        <v>0.08119774543656177</v>
+        <v>0.08357692814357875</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3435573177167726</v>
+        <v>0.3307239394160604</v>
       </c>
       <c r="G2">
-        <v>0.2404316323115054</v>
+        <v>0.2109038389255034</v>
       </c>
       <c r="H2">
-        <v>0.0006949806383245161</v>
+        <v>0.0007039678740778932</v>
       </c>
       <c r="I2">
-        <v>0.001549113182474304</v>
+        <v>0.001797478864188129</v>
       </c>
       <c r="J2">
-        <v>0.2336483925265682</v>
+        <v>0.2644505019057988</v>
       </c>
       <c r="K2">
-        <v>0.2303011062778282</v>
+        <v>0.2158678699444962</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1293056868271201</v>
       </c>
       <c r="M2">
-        <v>0.6100958802548178</v>
+        <v>0.04547213250622484</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.547235849257618</v>
+        <v>0.610145322679557</v>
       </c>
       <c r="P2">
-        <v>0.7154842271148882</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9477922465865021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.547725545721605</v>
+      </c>
+      <c r="R2">
+        <v>0.7080629573754829</v>
+      </c>
+      <c r="S2">
+        <v>0.9086834310367919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4819652155597964</v>
+        <v>0.467598101132694</v>
       </c>
       <c r="C3">
-        <v>0.1231211422632512</v>
+        <v>0.122423435521533</v>
       </c>
       <c r="D3">
-        <v>0.07169893698168295</v>
+        <v>0.07343552263991171</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3251978612688191</v>
+        <v>0.3145975931110456</v>
       </c>
       <c r="G3">
-        <v>0.2304571747137771</v>
+        <v>0.203124263627231</v>
       </c>
       <c r="H3">
-        <v>0.0001236338031214146</v>
+        <v>0.0001302996712575499</v>
       </c>
       <c r="I3">
-        <v>0.0009775967032625843</v>
+        <v>0.001231621590909171</v>
       </c>
       <c r="J3">
-        <v>0.2325162775842244</v>
+        <v>0.2626598232031014</v>
       </c>
       <c r="K3">
-        <v>0.2301087178260808</v>
+        <v>0.2170298344933741</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1336392005319631</v>
       </c>
       <c r="M3">
-        <v>0.5390454803699924</v>
+        <v>0.04338286695631233</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.21572518922369</v>
+        <v>0.5392298915758573</v>
       </c>
       <c r="P3">
-        <v>0.7394322829530324</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9240386404509877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.216510643877854</v>
+      </c>
+      <c r="R3">
+        <v>0.730522487879977</v>
+      </c>
+      <c r="S3">
+        <v>0.8908345719573276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4391849040015359</v>
+        <v>0.4283519236522153</v>
       </c>
       <c r="C4">
-        <v>0.1173950988083377</v>
+        <v>0.1148806033807546</v>
       </c>
       <c r="D4">
-        <v>0.06586616679082624</v>
+        <v>0.06721941600165593</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3142484948317943</v>
+        <v>0.3049453532938884</v>
       </c>
       <c r="G4">
-        <v>0.2245763876439355</v>
+        <v>0.1985833125189913</v>
       </c>
       <c r="H4">
-        <v>2.171488441504721E-06</v>
+        <v>3.41670224734969E-06</v>
       </c>
       <c r="I4">
-        <v>0.000734467764533786</v>
+        <v>0.0009778327279725829</v>
       </c>
       <c r="J4">
-        <v>0.2320038011279166</v>
+        <v>0.2616251390528177</v>
       </c>
       <c r="K4">
-        <v>0.2301385880123021</v>
+        <v>0.2178341747452972</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1364221004547232</v>
       </c>
       <c r="M4">
-        <v>0.495228847555083</v>
+        <v>0.04254957054672648</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.012721327882062</v>
+        <v>0.4954912585959192</v>
       </c>
       <c r="P4">
-        <v>0.754550548939382</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9103462722045066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.013663772005089</v>
+      </c>
+      <c r="R4">
+        <v>0.744728849807343</v>
+      </c>
+      <c r="S4">
+        <v>0.8805455356762479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4211787228162081</v>
+        <v>0.4117650229846106</v>
       </c>
       <c r="C5">
-        <v>0.115280927209092</v>
+        <v>0.1120660852372524</v>
       </c>
       <c r="D5">
-        <v>0.06353816756438135</v>
+        <v>0.06473900660465404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3096053946517259</v>
+        <v>0.3008152213228215</v>
       </c>
       <c r="G5">
-        <v>0.2219947391247885</v>
+        <v>0.1965531483420406</v>
       </c>
       <c r="H5">
-        <v>6.421517926291642E-06</v>
+        <v>4.52197900990825E-06</v>
       </c>
       <c r="I5">
-        <v>0.0007228076709702158</v>
+        <v>0.000971068523492491</v>
       </c>
       <c r="J5">
-        <v>0.2317130175645019</v>
+        <v>0.2610882066705855</v>
       </c>
       <c r="K5">
-        <v>0.229960915364174</v>
+        <v>0.2179670147805766</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1374673922346794</v>
       </c>
       <c r="M5">
-        <v>0.4773474054883025</v>
+        <v>0.04227682596973281</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.930086398284203</v>
+        <v>0.477641718128595</v>
       </c>
       <c r="P5">
-        <v>0.7607443345806923</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9042004771065422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.931087546526769</v>
+      </c>
+      <c r="R5">
+        <v>0.7505661516833406</v>
+      </c>
+      <c r="S5">
+        <v>0.8757449047686094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.417590854550923</v>
+        <v>0.4084178823983819</v>
       </c>
       <c r="C6">
-        <v>0.1151901211333666</v>
+        <v>0.1118872811244245</v>
       </c>
       <c r="D6">
-        <v>0.06321224596596409</v>
+        <v>0.06438917340454964</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3085227782874256</v>
+        <v>0.2998198230631459</v>
       </c>
       <c r="G6">
-        <v>0.2212721306534178</v>
+        <v>0.1959316376201627</v>
       </c>
       <c r="H6">
-        <v>1.029439223687589E-05</v>
+        <v>7.813975939630069E-06</v>
       </c>
       <c r="I6">
-        <v>0.0008052571448171619</v>
+        <v>0.001071024835214374</v>
       </c>
       <c r="J6">
-        <v>0.2315126804192857</v>
+        <v>0.2608397514765173</v>
       </c>
       <c r="K6">
-        <v>0.2296578117884884</v>
+        <v>0.2177257869709557</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1374975346356173</v>
       </c>
       <c r="M6">
-        <v>0.4744039243690565</v>
+        <v>0.04218185713966083</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.91635902819408</v>
+        <v>0.4747045720560976</v>
       </c>
       <c r="P6">
-        <v>0.7616966278527557</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9022380432040364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.917369808695895</v>
+      </c>
+      <c r="R6">
+        <v>0.7514771382617029</v>
+      </c>
+      <c r="S6">
+        <v>0.8740184744262081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4373180613534799</v>
+        <v>0.4262594190759614</v>
       </c>
       <c r="C7">
-        <v>0.1180776410799638</v>
+        <v>0.1154525495963554</v>
       </c>
       <c r="D7">
-        <v>0.06600102101469218</v>
+        <v>0.06746764343320422</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3133216184785681</v>
+        <v>0.3034894014975933</v>
       </c>
       <c r="G7">
-        <v>0.2237289752358222</v>
+        <v>0.1999053565685429</v>
       </c>
       <c r="H7">
-        <v>1.982021540669621E-06</v>
+        <v>3.159163682209254E-06</v>
       </c>
       <c r="I7">
-        <v>0.0009461010117304269</v>
+        <v>0.001231712764047543</v>
       </c>
       <c r="J7">
-        <v>0.231577703757111</v>
+        <v>0.2581032533489136</v>
       </c>
       <c r="K7">
-        <v>0.2293833481508756</v>
+        <v>0.2168697303380913</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1359210431782394</v>
       </c>
       <c r="M7">
-        <v>0.4950667660081365</v>
+        <v>0.04232342758786256</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.011576406360973</v>
+        <v>0.4948146774079163</v>
       </c>
       <c r="P7">
-        <v>0.7544178597459403</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9076558668172225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.012505171875844</v>
+      </c>
+      <c r="R7">
+        <v>0.744588181398786</v>
+      </c>
+      <c r="S7">
+        <v>0.8763008685355231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5251391120083326</v>
+        <v>0.5060597612708477</v>
       </c>
       <c r="C8">
-        <v>0.1302152484688719</v>
+        <v>0.1310328105791925</v>
       </c>
       <c r="D8">
-        <v>0.07814450429864195</v>
+        <v>0.08068223575773459</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3360134883344301</v>
+        <v>0.3221725315796249</v>
       </c>
       <c r="G8">
-        <v>0.2358651118895239</v>
+        <v>0.2142973750658044</v>
       </c>
       <c r="H8">
-        <v>0.000447322175155751</v>
+        <v>0.0004556000124917858</v>
       </c>
       <c r="I8">
-        <v>0.001583722777003693</v>
+        <v>0.001885121015098079</v>
       </c>
       <c r="J8">
-        <v>0.2326636458019919</v>
+        <v>0.2532743277821012</v>
       </c>
       <c r="K8">
-        <v>0.2292111973297644</v>
+        <v>0.2145062606071342</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1299393763275951</v>
       </c>
       <c r="M8">
-        <v>0.5857427895617064</v>
+        <v>0.04416387339435346</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.432752726103573</v>
+        <v>0.5841093693597514</v>
       </c>
       <c r="P8">
-        <v>0.7234075616547031</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9359678798797972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.43329886881935</v>
+      </c>
+      <c r="R8">
+        <v>0.7154342265056597</v>
+      </c>
+      <c r="S8">
+        <v>0.8936703425103474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.697422666423563</v>
+        <v>0.6626635756400105</v>
       </c>
       <c r="C9">
-        <v>0.1530985701260192</v>
+        <v>0.1617446135821865</v>
       </c>
       <c r="D9">
-        <v>0.10167791308902</v>
+        <v>0.1059907790632337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3848143615956587</v>
+        <v>0.3644548906565461</v>
       </c>
       <c r="G9">
-        <v>0.2632038646700323</v>
+        <v>0.238096530089102</v>
       </c>
       <c r="H9">
-        <v>0.003327628510171099</v>
+        <v>0.003314404066840693</v>
       </c>
       <c r="I9">
-        <v>0.003436194351574606</v>
+        <v>0.003578123947240108</v>
       </c>
       <c r="J9">
-        <v>0.2370565469728092</v>
+        <v>0.255913714184743</v>
       </c>
       <c r="K9">
-        <v>0.2314497235605835</v>
+        <v>0.2127967436414266</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1202508088672047</v>
       </c>
       <c r="M9">
-        <v>0.7619592439885565</v>
+        <v>0.0519321729304405</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.264874196061626</v>
+        <v>0.7594295018085546</v>
       </c>
       <c r="P9">
-        <v>0.6663388964797314</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.003682430762041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.264488423386524</v>
+      </c>
+      <c r="R9">
+        <v>0.6620907234904845</v>
+      </c>
+      <c r="S9">
+        <v>0.9438492002883692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8309982152767361</v>
+        <v>0.7827816237161755</v>
       </c>
       <c r="C10">
-        <v>0.1720766866612138</v>
+        <v>0.1857671670107521</v>
       </c>
       <c r="D10">
-        <v>0.1198487091884175</v>
+        <v>0.1261826798717607</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4185827990927535</v>
+        <v>0.3902370198231395</v>
       </c>
       <c r="G10">
-        <v>0.281011465294192</v>
+        <v>0.2666161427699194</v>
       </c>
       <c r="H10">
-        <v>0.00642766264544381</v>
+        <v>0.006371170071808763</v>
       </c>
       <c r="I10">
-        <v>0.005519357780623402</v>
+        <v>0.005460995305305971</v>
       </c>
       <c r="J10">
-        <v>0.239407574113514</v>
+        <v>0.2404491428016087</v>
       </c>
       <c r="K10">
-        <v>0.2311299986444055</v>
+        <v>0.2083791518287192</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1124272462273073</v>
       </c>
       <c r="M10">
-        <v>0.9013486086164448</v>
+        <v>0.05832264035614187</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.679756921485449</v>
+        <v>0.8949393421590059</v>
       </c>
       <c r="P10">
-        <v>0.6271191021317399</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.046733778454168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.67846149616625</v>
+      </c>
+      <c r="R10">
+        <v>0.6265403171471711</v>
+      </c>
+      <c r="S10">
+        <v>0.9648479251149666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9757110171247234</v>
+        <v>0.9200149088835303</v>
       </c>
       <c r="C11">
-        <v>0.1956448983809906</v>
+        <v>0.2092776072091311</v>
       </c>
       <c r="D11">
-        <v>0.1350904844433956</v>
+        <v>0.143379625208965</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4018566236865908</v>
+        <v>0.3679486207683169</v>
       </c>
       <c r="G11">
-        <v>0.2594286873998612</v>
+        <v>0.2745473663748825</v>
       </c>
       <c r="H11">
-        <v>0.02190663693027162</v>
+        <v>0.02185505336558791</v>
       </c>
       <c r="I11">
-        <v>0.006587183137316543</v>
+        <v>0.006514611012526039</v>
       </c>
       <c r="J11">
-        <v>0.225536838797268</v>
+        <v>0.2002387105087635</v>
       </c>
       <c r="K11">
-        <v>0.2095159817546701</v>
+        <v>0.1866947926488969</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1024496933335417</v>
       </c>
       <c r="M11">
-        <v>1.061498555980933</v>
+        <v>0.05309211241469747</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.319622630655374</v>
+        <v>1.047030928776024</v>
       </c>
       <c r="P11">
-        <v>0.6216567569922269</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9720749224997718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.318457949832393</v>
+      </c>
+      <c r="R11">
+        <v>0.6318059112861576</v>
+      </c>
+      <c r="S11">
+        <v>0.8767507491883748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.07734323675902</v>
+        <v>1.019211038838591</v>
       </c>
       <c r="C12">
-        <v>0.2112013275609002</v>
+        <v>0.2238780346307578</v>
       </c>
       <c r="D12">
-        <v>0.1440726010039839</v>
+        <v>0.1531757936197522</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3819279718559798</v>
+        <v>0.3471042280645094</v>
       </c>
       <c r="G12">
-        <v>0.2391309229519933</v>
+        <v>0.2678296221654222</v>
       </c>
       <c r="H12">
-        <v>0.05891683799431746</v>
+        <v>0.05887934512776383</v>
       </c>
       <c r="I12">
-        <v>0.006724714204269233</v>
+        <v>0.006613182972845522</v>
       </c>
       <c r="J12">
-        <v>0.2139578592866584</v>
+        <v>0.1821840242491533</v>
       </c>
       <c r="K12">
-        <v>0.1930985447446929</v>
+        <v>0.1719364216798454</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0968058735024897</v>
       </c>
       <c r="M12">
-        <v>1.172589585572865</v>
+        <v>0.0480797605043648</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.36239260198748</v>
+        <v>1.153642998160564</v>
       </c>
       <c r="P12">
-        <v>0.6344862203127484</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9048495134877896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.361566406178653</v>
+      </c>
+      <c r="R12">
+        <v>0.6532045584691204</v>
+      </c>
+      <c r="S12">
+        <v>0.8091166268669099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.147968889760506</v>
+        <v>1.092419256023106</v>
       </c>
       <c r="C13">
-        <v>0.2224138631251549</v>
+        <v>0.2342563258454078</v>
       </c>
       <c r="D13">
-        <v>0.1489207863337185</v>
+        <v>0.157587103604925</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3569150007650848</v>
+        <v>0.3258161402741067</v>
       </c>
       <c r="G13">
-        <v>0.2172848437549533</v>
+        <v>0.2425571753770868</v>
       </c>
       <c r="H13">
-        <v>0.1137070224952765</v>
+        <v>0.1136858608295341</v>
       </c>
       <c r="I13">
-        <v>0.006457515284449045</v>
+        <v>0.006374737301769962</v>
       </c>
       <c r="J13">
-        <v>0.2027424819958341</v>
+        <v>0.1783876991468958</v>
       </c>
       <c r="K13">
-        <v>0.1784633464148939</v>
+        <v>0.1606500862070543</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09335254342261834</v>
       </c>
       <c r="M13">
-        <v>1.251160107637077</v>
+        <v>0.04284554090921056</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6521700509013328</v>
+        <v>1.232351618674898</v>
       </c>
       <c r="P13">
-        <v>0.6604927244751266</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8350364061540461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6517200484938428</v>
+      </c>
+      <c r="R13">
+        <v>0.6845078821905588</v>
+      </c>
+      <c r="S13">
+        <v>0.7515197927700115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.182719848130063</v>
+        <v>1.131403984757611</v>
       </c>
       <c r="C14">
-        <v>0.2285821808446826</v>
+        <v>0.2399459895780183</v>
       </c>
       <c r="D14">
-        <v>0.150480927469502</v>
+        <v>0.1582621229387939</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3369992484691551</v>
+        <v>0.3103733542538407</v>
       </c>
       <c r="G14">
-        <v>0.2012405815530087</v>
+        <v>0.2175656737309737</v>
       </c>
       <c r="H14">
-        <v>0.1626811058778372</v>
+        <v>0.1626694519406442</v>
       </c>
       <c r="I14">
-        <v>0.00617235534266225</v>
+        <v>0.006153026374034809</v>
       </c>
       <c r="J14">
-        <v>0.1949915957444475</v>
+        <v>0.1808567793438911</v>
       </c>
       <c r="K14">
-        <v>0.1689708284710729</v>
+        <v>0.154059072012652</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09170828353039351</v>
       </c>
       <c r="M14">
-        <v>1.291394011027961</v>
+        <v>0.03911311168765508</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3007662828829325</v>
+        <v>1.274929791168177</v>
       </c>
       <c r="P14">
-        <v>0.6852964869436846</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7847522607689825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.300533528000372</v>
+      </c>
+      <c r="R14">
+        <v>0.7107168344643355</v>
+      </c>
+      <c r="S14">
+        <v>0.7145857339959321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.182922371501746</v>
+        <v>1.133682632571293</v>
       </c>
       <c r="C15">
-        <v>0.2294225111909896</v>
+        <v>0.2407460507960764</v>
       </c>
       <c r="D15">
-        <v>0.1500144138799868</v>
+        <v>0.157333354809893</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3307866328137976</v>
+        <v>0.3060653272347977</v>
       </c>
       <c r="G15">
-        <v>0.1967044962328046</v>
+        <v>0.2082091084561526</v>
       </c>
       <c r="H15">
-        <v>0.1751049191623792</v>
+        <v>0.175095888117454</v>
       </c>
       <c r="I15">
-        <v>0.0061114481599569</v>
+        <v>0.006144630570235954</v>
       </c>
       <c r="J15">
-        <v>0.1930521509193355</v>
+        <v>0.183743341415461</v>
       </c>
       <c r="K15">
-        <v>0.1667586261669491</v>
+        <v>0.1528250669325271</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09157757541912126</v>
       </c>
       <c r="M15">
-        <v>1.293382266683807</v>
+        <v>0.03807671874585417</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2332278799634899</v>
+        <v>1.278466909625195</v>
       </c>
       <c r="P15">
-        <v>0.6930549103620507</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7710489317786795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2330443858549529</v>
+      </c>
+      <c r="R15">
+        <v>0.7179057010803049</v>
+      </c>
+      <c r="S15">
+        <v>0.7062517114418227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.107139383095046</v>
+        <v>1.066658893267544</v>
       </c>
       <c r="C16">
-        <v>0.2189196796895772</v>
+        <v>0.2303571604433046</v>
       </c>
       <c r="D16">
-        <v>0.1410717684824476</v>
+        <v>0.1463348773098403</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.320782652222519</v>
+        <v>0.3029518457751337</v>
       </c>
       <c r="G16">
-        <v>0.1930040836829079</v>
+        <v>0.1831341663933301</v>
       </c>
       <c r="H16">
-        <v>0.1621032606409898</v>
+        <v>0.1621006434508701</v>
       </c>
       <c r="I16">
-        <v>0.005354908010509973</v>
+        <v>0.005542903096927176</v>
       </c>
       <c r="J16">
-        <v>0.193932292328725</v>
+        <v>0.2062651419415573</v>
       </c>
       <c r="K16">
-        <v>0.1693333410417992</v>
+        <v>0.1576841994780391</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09474005623579096</v>
       </c>
       <c r="M16">
-        <v>1.214153997762565</v>
+        <v>0.03735655504420876</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2284440093550373</v>
+        <v>1.207096415461621</v>
       </c>
       <c r="P16">
-        <v>0.7012323296251353</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7648905118720961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2283186357377289</v>
+      </c>
+      <c r="R16">
+        <v>0.7189350202305462</v>
+      </c>
+      <c r="S16">
+        <v>0.7180875716889688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.0306964497438</v>
+        <v>0.9938937085830162</v>
       </c>
       <c r="C17">
-        <v>0.2076450488750226</v>
+        <v>0.219000037103541</v>
       </c>
       <c r="D17">
-        <v>0.1334253082616499</v>
+        <v>0.1378470318415594</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3237282637424244</v>
+        <v>0.3081914932342897</v>
       </c>
       <c r="G17">
-        <v>0.1986755122912669</v>
+        <v>0.1796570120187511</v>
       </c>
       <c r="H17">
-        <v>0.1242065838992374</v>
+        <v>0.1242049437100263</v>
       </c>
       <c r="I17">
-        <v>0.004958745573933498</v>
+        <v>0.005225266857614486</v>
       </c>
       <c r="J17">
-        <v>0.1987645996585243</v>
+        <v>0.2211848202111142</v>
       </c>
       <c r="K17">
-        <v>0.1763269877630211</v>
+        <v>0.1648400523241431</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09826064342556862</v>
       </c>
       <c r="M17">
-        <v>1.132250798722708</v>
+        <v>0.03860433313524148</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3848146606336869</v>
+        <v>1.128625076735176</v>
       </c>
       <c r="P17">
-        <v>0.6943519879272699</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7869328279828665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3846828667318576</v>
+      </c>
+      <c r="R17">
+        <v>0.7074261541400375</v>
+      </c>
+      <c r="S17">
+        <v>0.7455225848040499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9484480907110537</v>
+        <v>0.9122671045988966</v>
       </c>
       <c r="C18">
-        <v>0.1939409352186203</v>
+        <v>0.2053858138685598</v>
       </c>
       <c r="D18">
-        <v>0.1259271178122674</v>
+        <v>0.1301233171022318</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3388095488636438</v>
+        <v>0.3230107422162618</v>
       </c>
       <c r="G18">
-        <v>0.2138537619724588</v>
+        <v>0.1897474800719081</v>
       </c>
       <c r="H18">
-        <v>0.07147981594471986</v>
+        <v>0.07147622025249944</v>
       </c>
       <c r="I18">
-        <v>0.004572406414316887</v>
+        <v>0.004820138739693114</v>
       </c>
       <c r="J18">
-        <v>0.207855339516037</v>
+        <v>0.2342059952569215</v>
       </c>
       <c r="K18">
-        <v>0.188708536702908</v>
+        <v>0.175898001861043</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1029348621443091</v>
       </c>
       <c r="M18">
-        <v>1.040634909117131</v>
+        <v>0.04197752385725906</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8231701161627427</v>
+        <v>1.038495189378011</v>
       </c>
       <c r="P18">
-        <v>0.6772709289082961</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.838090084071041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8229816774404597</v>
+      </c>
+      <c r="R18">
+        <v>0.6862832890145825</v>
+      </c>
+      <c r="S18">
+        <v>0.7948529352932923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8661515743924895</v>
+        <v>0.8287146566393631</v>
       </c>
       <c r="C19">
-        <v>0.1815120979167517</v>
+        <v>0.1934461588924989</v>
       </c>
       <c r="D19">
-        <v>0.1195277562907933</v>
+        <v>0.1238699804029721</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3613273439021114</v>
+        <v>0.343652848491196</v>
       </c>
       <c r="G19">
-        <v>0.2347866036541149</v>
+        <v>0.2074021174438556</v>
       </c>
       <c r="H19">
-        <v>0.02701782045826207</v>
+        <v>0.02700839037593283</v>
       </c>
       <c r="I19">
-        <v>0.004743716948548915</v>
+        <v>0.005009856834145232</v>
       </c>
       <c r="J19">
-        <v>0.2191337124897998</v>
+        <v>0.2457929534196879</v>
       </c>
       <c r="K19">
-        <v>0.2039945704377857</v>
+        <v>0.1888703334094544</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1080135471201213</v>
       </c>
       <c r="M19">
-        <v>0.9505882638023309</v>
+        <v>0.04665284794462998</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.654031384695188</v>
+        <v>0.9488993011968319</v>
       </c>
       <c r="P19">
-        <v>0.6596941195391217</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9060724721349942</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.653704268684862</v>
+      </c>
+      <c r="R19">
+        <v>0.6645862155042543</v>
+      </c>
+      <c r="S19">
+        <v>0.85639808243684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7911873539808028</v>
+        <v>0.7476753028485348</v>
       </c>
       <c r="C20">
-        <v>0.1694687058596003</v>
+        <v>0.1828641308063084</v>
       </c>
       <c r="D20">
-        <v>0.115638206724995</v>
+        <v>0.1210284001978152</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4067366769362266</v>
+        <v>0.382568662208584</v>
       </c>
       <c r="G20">
-        <v>0.2735719653136144</v>
+        <v>0.2484234584761751</v>
       </c>
       <c r="H20">
-        <v>0.005483488312628459</v>
+        <v>0.005443069893964925</v>
       </c>
       <c r="I20">
-        <v>0.005611441891560709</v>
+        <v>0.005787188620872463</v>
       </c>
       <c r="J20">
-        <v>0.2373576666341677</v>
+        <v>0.2530774683914245</v>
       </c>
       <c r="K20">
-        <v>0.2287591212240123</v>
+        <v>0.2081536632523537</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1139165471872481</v>
       </c>
       <c r="M20">
-        <v>0.8654624080745066</v>
+        <v>0.05599428583497001</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.562036037595234</v>
+        <v>0.8620247082539265</v>
       </c>
       <c r="P20">
-        <v>0.6369078469679774</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.026571454679129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.561057108800284</v>
+      </c>
+      <c r="R20">
+        <v>0.6356398110406367</v>
+      </c>
+      <c r="S20">
+        <v>0.9566870137162056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8793572056729317</v>
+        <v>0.8198620051502701</v>
       </c>
       <c r="C21">
-        <v>0.1814055492354925</v>
+        <v>0.1951301761250619</v>
       </c>
       <c r="D21">
-        <v>0.1283416103091781</v>
+        <v>0.1376254067577207</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4395115174598345</v>
+        <v>0.3981222022632878</v>
       </c>
       <c r="G21">
-        <v>0.2935318847877681</v>
+        <v>0.3211374597429142</v>
       </c>
       <c r="H21">
-        <v>0.00919730895318871</v>
+        <v>0.009090943496543602</v>
       </c>
       <c r="I21">
-        <v>0.007375950863920622</v>
+        <v>0.007252701552638463</v>
       </c>
       <c r="J21">
-        <v>0.2424016100390816</v>
+        <v>0.1995326781170519</v>
       </c>
       <c r="K21">
-        <v>0.2330786344973745</v>
+        <v>0.2041540192860367</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.108045439357273</v>
       </c>
       <c r="M21">
-        <v>0.9556928503577353</v>
+        <v>0.06107049924200325</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.196692300130522</v>
+        <v>0.9391016736689721</v>
       </c>
       <c r="P21">
-        <v>0.6070005064143329</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.079733813662585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.194485532585404</v>
+      </c>
+      <c r="R21">
+        <v>0.607580185704478</v>
+      </c>
+      <c r="S21">
+        <v>0.9603145097771346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9436759901578569</v>
+        <v>0.8731473883328817</v>
       </c>
       <c r="C22">
-        <v>0.189081025642281</v>
+        <v>0.2026414884322918</v>
       </c>
       <c r="D22">
-        <v>0.1368210032827051</v>
+        <v>0.1488872942060908</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4606612659781035</v>
+        <v>0.4071112122174512</v>
       </c>
       <c r="G22">
-        <v>0.3062584322248227</v>
+        <v>0.3764596384496031</v>
       </c>
       <c r="H22">
-        <v>0.0117355776275152</v>
+        <v>0.01157694247351687</v>
       </c>
       <c r="I22">
-        <v>0.008380032627322009</v>
+        <v>0.007962420305461571</v>
       </c>
       <c r="J22">
-        <v>0.2455907900276557</v>
+        <v>0.1713129340139368</v>
       </c>
       <c r="K22">
-        <v>0.2358014658796712</v>
+        <v>0.2011180494285796</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1042597393184401</v>
       </c>
       <c r="M22">
-        <v>1.019857579854687</v>
+        <v>0.06444549274272759</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.510507051122758</v>
+        <v>0.9936826679574438</v>
       </c>
       <c r="P22">
-        <v>0.5883079670859495</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.113571959716381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.507444379623109</v>
+      </c>
+      <c r="R22">
+        <v>0.5906220438518002</v>
+      </c>
+      <c r="S22">
+        <v>0.9593076092487109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9113552073048368</v>
+        <v>0.8473923164745258</v>
       </c>
       <c r="C23">
-        <v>0.1840879029591349</v>
+        <v>0.198106976505585</v>
       </c>
       <c r="D23">
-        <v>0.1320900303779666</v>
+        <v>0.1423303369220719</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4503487288667287</v>
+        <v>0.4047038968955974</v>
       </c>
       <c r="G23">
-        <v>0.3003859458308682</v>
+        <v>0.3407164597391414</v>
       </c>
       <c r="H23">
-        <v>0.01034815390994902</v>
+        <v>0.0102204268016627</v>
       </c>
       <c r="I23">
-        <v>0.007565120678273196</v>
+        <v>0.007252528917819134</v>
       </c>
       <c r="J23">
-        <v>0.2443553053630936</v>
+        <v>0.1902716280951502</v>
       </c>
       <c r="K23">
-        <v>0.2351987829196531</v>
+        <v>0.2041022396875896</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.106704564841456</v>
       </c>
       <c r="M23">
-        <v>0.9855235075474695</v>
+        <v>0.06321922022215887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.34285508992798</v>
+        <v>0.9658950512846047</v>
       </c>
       <c r="P23">
-        <v>0.5983579302189765</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.098440039700193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.340297075540064</v>
+      </c>
+      <c r="R23">
+        <v>0.5994871841296074</v>
+      </c>
+      <c r="S23">
+        <v>0.9667859643686967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7852035627979035</v>
+        <v>0.7416659036346402</v>
       </c>
       <c r="C24">
-        <v>0.1667426622038448</v>
+        <v>0.1799142574457449</v>
       </c>
       <c r="D24">
-        <v>0.1145298346713162</v>
+        <v>0.11989474488837</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4106247963933711</v>
+        <v>0.3862927854007765</v>
       </c>
       <c r="G24">
-        <v>0.2773760324068917</v>
+        <v>0.2515347811799131</v>
       </c>
       <c r="H24">
-        <v>0.005823311831278932</v>
+        <v>0.005780959785048667</v>
       </c>
       <c r="I24">
-        <v>0.005186888246242027</v>
+        <v>0.005260973311838946</v>
       </c>
       <c r="J24">
-        <v>0.2393617905086387</v>
+        <v>0.2554390485710911</v>
       </c>
       <c r="K24">
-        <v>0.2319489733628188</v>
+        <v>0.210985290111438</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1150328948266459</v>
       </c>
       <c r="M24">
-        <v>0.8554335017467167</v>
+        <v>0.05701601285346847</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.712079556098445</v>
+        <v>0.8521144689260325</v>
       </c>
       <c r="P24">
-        <v>0.6372295474833423</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.038831383891747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.711063357923791</v>
+      </c>
+      <c r="R24">
+        <v>0.6351327833010139</v>
+      </c>
+      <c r="S24">
+        <v>0.9682475055855093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6481333628555603</v>
+        <v>0.6181611190066576</v>
       </c>
       <c r="C25">
-        <v>0.1481858251731438</v>
+        <v>0.1551094381438247</v>
       </c>
       <c r="D25">
-        <v>0.09561273689145366</v>
+        <v>0.09928025094733073</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3697271799353743</v>
+        <v>0.3520156675972288</v>
       </c>
       <c r="G25">
-        <v>0.2540963693941904</v>
+        <v>0.2268864898269953</v>
       </c>
       <c r="H25">
-        <v>0.002304739978636228</v>
+        <v>0.002302426868784124</v>
       </c>
       <c r="I25">
-        <v>0.003198214903431307</v>
+        <v>0.003487063654208811</v>
       </c>
       <c r="J25">
-        <v>0.234942930325623</v>
+        <v>0.2585909510231161</v>
       </c>
       <c r="K25">
-        <v>0.2293580251408684</v>
+        <v>0.2122641871312467</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1223914345489288</v>
       </c>
       <c r="M25">
-        <v>0.7145802083013706</v>
+        <v>0.04913025651786462</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.038773964986675</v>
+        <v>0.7130608787861092</v>
       </c>
       <c r="P25">
-        <v>0.6811227727337679</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9798022209387938</v>
+        <v>3.038696568798485</v>
+      </c>
+      <c r="R25">
+        <v>0.6760461646223472</v>
+      </c>
+      <c r="S25">
+        <v>0.9273808569396067</v>
       </c>
     </row>
   </sheetData>
